--- a/files/Ruleset-Literature.xlsx
+++ b/files/Ruleset-Literature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" activeTab="6"/>
+    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Elements of Java Style" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1360">
   <si>
     <t>ID</t>
   </si>
@@ -1623,9 +1623,6 @@
     <t>Präzise sein</t>
   </si>
   <si>
-    <t>Präzise Entscheidungen treffen und implementieren:oding</t>
-  </si>
-  <si>
     <t>CLC-G27</t>
   </si>
   <si>
@@ -3276,9 +3273,6 @@
     <t>Field declaration</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Method length</t>
   </si>
   <si>
@@ -4198,6 +4192,12 @@
   </si>
   <si>
     <t>Wann immer möglich bewährte Entwurfsmuster verwenden</t>
+  </si>
+  <si>
+    <t>Präzise Entscheidungen treffen und implementieren</t>
+  </si>
+  <si>
+    <t>Eventuell "keine privaten Klassenvariablen"</t>
   </si>
 </sst>
 </file>
@@ -4567,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6770,7 +6770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7532,27 +7534,30 @@
         <v>500</v>
       </c>
       <c r="D38" t="s">
-        <v>501</v>
+        <v>1358</v>
       </c>
       <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B39" t="s">
         <v>416</v>
       </c>
       <c r="C39" t="s">
+        <v>502</v>
+      </c>
+      <c r="D39" t="s">
         <v>503</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>504</v>
-      </c>
-      <c r="E39" t="s">
-        <v>505</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -7560,19 +7565,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B40" t="s">
         <v>416</v>
       </c>
       <c r="C40" t="s">
+        <v>506</v>
+      </c>
+      <c r="D40" t="s">
         <v>507</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>508</v>
-      </c>
-      <c r="E40" t="s">
-        <v>509</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
@@ -7580,16 +7585,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B41" t="s">
         <v>416</v>
       </c>
       <c r="C41" t="s">
+        <v>510</v>
+      </c>
+      <c r="D41" t="s">
         <v>511</v>
-      </c>
-      <c r="D41" t="s">
-        <v>512</v>
       </c>
       <c r="E41" t="s">
         <v>268</v>
@@ -7600,16 +7605,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B42" t="s">
         <v>416</v>
       </c>
       <c r="C42" t="s">
+        <v>513</v>
+      </c>
+      <c r="D42" t="s">
         <v>514</v>
-      </c>
-      <c r="D42" t="s">
-        <v>515</v>
       </c>
       <c r="E42" t="s">
         <v>264</v>
@@ -7620,16 +7625,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B43" t="s">
         <v>416</v>
       </c>
       <c r="C43" t="s">
+        <v>516</v>
+      </c>
+      <c r="D43" t="s">
         <v>517</v>
-      </c>
-      <c r="D43" t="s">
-        <v>518</v>
       </c>
       <c r="E43" t="s">
         <v>264</v>
@@ -7640,16 +7645,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B44" t="s">
         <v>416</v>
       </c>
       <c r="C44" t="s">
+        <v>519</v>
+      </c>
+      <c r="D44" t="s">
         <v>520</v>
-      </c>
-      <c r="D44" t="s">
-        <v>521</v>
       </c>
       <c r="E44" t="s">
         <v>61</v>
@@ -7660,16 +7665,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B45" t="s">
         <v>416</v>
       </c>
       <c r="C45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D45" t="s">
         <v>523</v>
-      </c>
-      <c r="D45" t="s">
-        <v>524</v>
       </c>
       <c r="E45" t="s">
         <v>108</v>
@@ -7680,16 +7685,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B46" t="s">
         <v>416</v>
       </c>
       <c r="C46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D46" t="s">
         <v>526</v>
-      </c>
-      <c r="D46" t="s">
-        <v>527</v>
       </c>
       <c r="E46" t="s">
         <v>264</v>
@@ -7700,19 +7705,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B47" t="s">
         <v>416</v>
       </c>
       <c r="C47" t="s">
+        <v>528</v>
+      </c>
+      <c r="D47" t="s">
         <v>529</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>530</v>
-      </c>
-      <c r="E47" t="s">
-        <v>531</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -7720,16 +7725,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B48" t="s">
         <v>416</v>
       </c>
       <c r="C48" t="s">
+        <v>532</v>
+      </c>
+      <c r="D48" t="s">
         <v>533</v>
-      </c>
-      <c r="D48" t="s">
-        <v>534</v>
       </c>
       <c r="E48" t="s">
         <v>264</v>
@@ -7740,19 +7745,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B49" t="s">
         <v>535</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>536</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>537</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>538</v>
-      </c>
-      <c r="E49" t="s">
-        <v>539</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -7760,19 +7765,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B50" t="s">
+        <v>535</v>
+      </c>
+      <c r="C50" t="s">
         <v>540</v>
       </c>
-      <c r="B50" t="s">
-        <v>536</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>541</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>542</v>
-      </c>
-      <c r="E50" t="s">
-        <v>543</v>
       </c>
       <c r="F50" t="s">
         <v>28</v>
@@ -7780,19 +7785,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" t="s">
         <v>544</v>
       </c>
-      <c r="B51" t="s">
-        <v>536</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>545</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>546</v>
-      </c>
-      <c r="E51" t="s">
-        <v>547</v>
       </c>
       <c r="F51" t="s">
         <v>28</v>
@@ -7800,16 +7805,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B52" t="s">
         <v>548</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>549</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>550</v>
-      </c>
-      <c r="D52" t="s">
-        <v>551</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
@@ -7820,16 +7825,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B53" t="s">
+        <v>548</v>
+      </c>
+      <c r="C53" t="s">
         <v>552</v>
       </c>
-      <c r="B53" t="s">
-        <v>549</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>553</v>
-      </c>
-      <c r="D53" t="s">
-        <v>554</v>
       </c>
       <c r="E53" t="s">
         <v>39</v>
@@ -7840,16 +7845,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" t="s">
+        <v>548</v>
+      </c>
+      <c r="C54" t="s">
         <v>555</v>
       </c>
-      <c r="B54" t="s">
-        <v>549</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>556</v>
-      </c>
-      <c r="D54" t="s">
-        <v>557</v>
       </c>
       <c r="E54" t="s">
         <v>39</v>
@@ -7860,16 +7865,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B55" t="s">
+        <v>548</v>
+      </c>
+      <c r="C55" t="s">
         <v>558</v>
       </c>
-      <c r="B55" t="s">
-        <v>549</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>559</v>
-      </c>
-      <c r="D55" t="s">
-        <v>560</v>
       </c>
       <c r="E55" t="s">
         <v>39</v>
@@ -7880,16 +7885,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B56" t="s">
+        <v>548</v>
+      </c>
+      <c r="C56" t="s">
         <v>561</v>
       </c>
-      <c r="B56" t="s">
-        <v>549</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>562</v>
-      </c>
-      <c r="D56" t="s">
-        <v>563</v>
       </c>
       <c r="E56" t="s">
         <v>39</v>
@@ -7900,16 +7905,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B57" t="s">
+        <v>548</v>
+      </c>
+      <c r="C57" t="s">
         <v>564</v>
       </c>
-      <c r="B57" t="s">
-        <v>549</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>565</v>
-      </c>
-      <c r="D57" t="s">
-        <v>566</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
@@ -7920,16 +7925,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B58" t="s">
+        <v>548</v>
+      </c>
+      <c r="C58" t="s">
         <v>567</v>
       </c>
-      <c r="B58" t="s">
-        <v>549</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>568</v>
-      </c>
-      <c r="D58" t="s">
-        <v>569</v>
       </c>
       <c r="E58" t="s">
         <v>39</v>
@@ -7940,19 +7945,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B59" t="s">
         <v>570</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>571</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>572</v>
       </c>
-      <c r="D59" t="s">
-        <v>573</v>
-      </c>
       <c r="E59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F59" t="s">
         <v>28</v>
@@ -7960,16 +7965,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B60" t="s">
+        <v>570</v>
+      </c>
+      <c r="C60" t="s">
         <v>574</v>
       </c>
-      <c r="B60" t="s">
-        <v>571</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>575</v>
-      </c>
-      <c r="D60" t="s">
-        <v>576</v>
       </c>
       <c r="E60" t="s">
         <v>399</v>
@@ -7980,19 +7985,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B61" t="s">
+        <v>570</v>
+      </c>
+      <c r="C61" t="s">
         <v>577</v>
       </c>
-      <c r="B61" t="s">
-        <v>571</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>578</v>
       </c>
-      <c r="D61" t="s">
-        <v>579</v>
-      </c>
       <c r="E61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -8000,19 +8005,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B62" t="s">
+        <v>570</v>
+      </c>
+      <c r="C62" t="s">
         <v>580</v>
       </c>
-      <c r="B62" t="s">
-        <v>571</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>581</v>
       </c>
-      <c r="D62" t="s">
-        <v>582</v>
-      </c>
       <c r="E62" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -8020,19 +8025,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B63" t="s">
+        <v>570</v>
+      </c>
+      <c r="C63" t="s">
         <v>583</v>
       </c>
-      <c r="B63" t="s">
-        <v>571</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>584</v>
       </c>
-      <c r="D63" t="s">
-        <v>585</v>
-      </c>
       <c r="E63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -8040,16 +8045,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B64" t="s">
+        <v>570</v>
+      </c>
+      <c r="C64" t="s">
         <v>586</v>
       </c>
-      <c r="B64" t="s">
-        <v>571</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>587</v>
-      </c>
-      <c r="D64" t="s">
-        <v>588</v>
       </c>
       <c r="E64" t="s">
         <v>399</v>
@@ -8060,16 +8065,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B65" t="s">
+        <v>570</v>
+      </c>
+      <c r="C65" t="s">
         <v>589</v>
       </c>
-      <c r="B65" t="s">
-        <v>571</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>590</v>
-      </c>
-      <c r="D65" t="s">
-        <v>591</v>
       </c>
       <c r="E65" t="s">
         <v>399</v>
@@ -8080,16 +8085,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B66" t="s">
+        <v>570</v>
+      </c>
+      <c r="C66" t="s">
         <v>592</v>
       </c>
-      <c r="B66" t="s">
-        <v>571</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>593</v>
-      </c>
-      <c r="D66" t="s">
-        <v>594</v>
       </c>
       <c r="E66" t="s">
         <v>399</v>
@@ -8100,16 +8105,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B67" t="s">
+        <v>570</v>
+      </c>
+      <c r="C67" t="s">
         <v>595</v>
       </c>
-      <c r="B67" t="s">
-        <v>571</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>596</v>
-      </c>
-      <c r="D67" t="s">
-        <v>597</v>
       </c>
       <c r="E67" t="s">
         <v>399</v>
@@ -8161,16 +8166,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" t="s">
         <v>598</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>599</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>600</v>
-      </c>
-      <c r="D2" t="s">
-        <v>601</v>
       </c>
       <c r="E2" t="s">
         <v>264</v>
@@ -8181,19 +8186,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" t="s">
         <v>602</v>
       </c>
-      <c r="B3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>603</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>604</v>
-      </c>
-      <c r="E3" t="s">
-        <v>605</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8201,19 +8206,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" t="s">
         <v>606</v>
       </c>
-      <c r="B4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>607</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>608</v>
-      </c>
-      <c r="E4" t="s">
-        <v>609</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -8221,16 +8226,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" t="s">
         <v>610</v>
       </c>
-      <c r="B5" t="s">
-        <v>599</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>611</v>
-      </c>
-      <c r="D5" t="s">
-        <v>612</v>
       </c>
       <c r="E5" t="s">
         <v>244</v>
@@ -8241,16 +8246,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" t="s">
         <v>613</v>
       </c>
-      <c r="B6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>614</v>
-      </c>
-      <c r="D6" t="s">
-        <v>615</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -8261,16 +8266,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" t="s">
         <v>616</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>617</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>618</v>
-      </c>
-      <c r="D7" t="s">
-        <v>619</v>
       </c>
       <c r="E7" t="s">
         <v>264</v>
@@ -8281,16 +8286,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" t="s">
         <v>620</v>
       </c>
-      <c r="B8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>621</v>
-      </c>
-      <c r="D8" t="s">
-        <v>622</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -8301,16 +8306,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" t="s">
         <v>623</v>
       </c>
-      <c r="B9" t="s">
-        <v>599</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>624</v>
-      </c>
-      <c r="D9" t="s">
-        <v>625</v>
       </c>
       <c r="E9" t="s">
         <v>244</v>
@@ -8321,16 +8326,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" t="s">
         <v>626</v>
       </c>
-      <c r="B10" t="s">
-        <v>599</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>627</v>
-      </c>
-      <c r="D10" t="s">
-        <v>628</v>
       </c>
       <c r="E10" t="s">
         <v>362</v>
@@ -8341,19 +8346,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" t="s">
         <v>629</v>
       </c>
-      <c r="B11" t="s">
-        <v>599</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>630</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>631</v>
-      </c>
-      <c r="E11" t="s">
-        <v>632</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -8361,16 +8366,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" t="s">
         <v>633</v>
       </c>
-      <c r="B12" t="s">
-        <v>599</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>634</v>
-      </c>
-      <c r="D12" t="s">
-        <v>635</v>
       </c>
       <c r="E12" t="s">
         <v>436</v>
@@ -8381,16 +8386,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" t="s">
         <v>636</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>637</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>638</v>
-      </c>
-      <c r="D13" t="s">
-        <v>639</v>
       </c>
       <c r="E13" t="s">
         <v>264</v>
@@ -8401,19 +8406,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B14" t="s">
         <v>640</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>641</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>642</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>643</v>
-      </c>
-      <c r="E14" t="s">
-        <v>644</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -8421,19 +8426,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" t="s">
         <v>645</v>
       </c>
-      <c r="B15" t="s">
-        <v>599</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>646</v>
       </c>
-      <c r="D15" t="s">
-        <v>647</v>
-      </c>
       <c r="E15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -8441,19 +8446,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16" t="s">
         <v>648</v>
       </c>
-      <c r="B16" t="s">
-        <v>599</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>649</v>
       </c>
-      <c r="D16" t="s">
-        <v>650</v>
-      </c>
       <c r="E16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -8461,16 +8466,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B17" t="s">
+        <v>598</v>
+      </c>
+      <c r="C17" t="s">
         <v>651</v>
       </c>
-      <c r="B17" t="s">
-        <v>599</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>652</v>
-      </c>
-      <c r="D17" t="s">
-        <v>653</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -8481,19 +8486,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B18" t="s">
+        <v>636</v>
+      </c>
+      <c r="C18" t="s">
         <v>654</v>
       </c>
-      <c r="B18" t="s">
-        <v>637</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>655</v>
       </c>
-      <c r="D18" t="s">
-        <v>656</v>
-      </c>
       <c r="E18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -8501,19 +8506,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" t="s">
+        <v>636</v>
+      </c>
+      <c r="C19" t="s">
         <v>657</v>
       </c>
-      <c r="B19" t="s">
-        <v>637</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>658</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>659</v>
-      </c>
-      <c r="E19" t="s">
-        <v>660</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -8521,16 +8526,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B20" t="s">
+        <v>636</v>
+      </c>
+      <c r="C20" t="s">
         <v>661</v>
       </c>
-      <c r="B20" t="s">
-        <v>637</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>662</v>
-      </c>
-      <c r="D20" t="s">
-        <v>663</v>
       </c>
       <c r="E20" t="s">
         <v>189</v>
@@ -8541,19 +8546,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B21" t="s">
+        <v>598</v>
+      </c>
+      <c r="C21" t="s">
         <v>664</v>
       </c>
-      <c r="B21" t="s">
-        <v>599</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>665</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>666</v>
-      </c>
-      <c r="E21" t="s">
-        <v>667</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -8561,19 +8566,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C22" t="s">
         <v>668</v>
       </c>
-      <c r="B22" t="s">
-        <v>599</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>669</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>670</v>
-      </c>
-      <c r="E22" t="s">
-        <v>671</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -8581,16 +8586,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B23" t="s">
+        <v>598</v>
+      </c>
+      <c r="C23" t="s">
         <v>672</v>
       </c>
-      <c r="B23" t="s">
-        <v>599</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>673</v>
-      </c>
-      <c r="D23" t="s">
-        <v>674</v>
       </c>
       <c r="E23" t="s">
         <v>244</v>
@@ -8601,16 +8606,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C24" t="s">
         <v>675</v>
       </c>
-      <c r="B24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>676</v>
-      </c>
-      <c r="D24" t="s">
-        <v>677</v>
       </c>
       <c r="E24" t="s">
         <v>498</v>
@@ -8621,19 +8626,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B25" t="s">
+        <v>636</v>
+      </c>
+      <c r="C25" t="s">
         <v>678</v>
       </c>
-      <c r="B25" t="s">
-        <v>637</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>679</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>680</v>
-      </c>
-      <c r="E25" t="s">
-        <v>681</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -8641,16 +8646,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B26" t="s">
+        <v>598</v>
+      </c>
+      <c r="C26" t="s">
         <v>682</v>
       </c>
-      <c r="B26" t="s">
-        <v>599</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>683</v>
-      </c>
-      <c r="D26" t="s">
-        <v>684</v>
       </c>
       <c r="E26" t="s">
         <v>264</v>
@@ -8661,19 +8666,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B27" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" t="s">
         <v>685</v>
       </c>
-      <c r="B27" t="s">
-        <v>617</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>686</v>
       </c>
-      <c r="D27" t="s">
-        <v>687</v>
-      </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -8681,16 +8686,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B28" t="s">
+        <v>616</v>
+      </c>
+      <c r="C28" t="s">
         <v>688</v>
       </c>
-      <c r="B28" t="s">
-        <v>617</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>689</v>
-      </c>
-      <c r="D28" t="s">
-        <v>690</v>
       </c>
       <c r="E28" t="s">
         <v>120</v>
@@ -8701,16 +8706,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B29" t="s">
+        <v>616</v>
+      </c>
+      <c r="C29" t="s">
         <v>691</v>
       </c>
-      <c r="B29" t="s">
-        <v>617</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>692</v>
-      </c>
-      <c r="D29" t="s">
-        <v>693</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
@@ -8721,16 +8726,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B30" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" t="s">
         <v>694</v>
       </c>
-      <c r="B30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>695</v>
-      </c>
-      <c r="D30" t="s">
-        <v>696</v>
       </c>
       <c r="E30" t="s">
         <v>108</v>
@@ -8741,16 +8746,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C31" t="s">
         <v>697</v>
       </c>
-      <c r="B31" t="s">
-        <v>637</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>698</v>
-      </c>
-      <c r="D31" t="s">
-        <v>699</v>
       </c>
       <c r="E31" t="s">
         <v>264</v>
@@ -8761,19 +8766,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B32" t="s">
+        <v>640</v>
+      </c>
+      <c r="C32" t="s">
         <v>700</v>
       </c>
-      <c r="B32" t="s">
-        <v>641</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>701</v>
       </c>
-      <c r="D32" t="s">
-        <v>702</v>
-      </c>
       <c r="E32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -8781,19 +8786,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B33" t="s">
+        <v>640</v>
+      </c>
+      <c r="C33" t="s">
         <v>703</v>
       </c>
-      <c r="B33" t="s">
-        <v>641</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>704</v>
       </c>
-      <c r="D33" t="s">
-        <v>705</v>
-      </c>
       <c r="E33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -8801,19 +8806,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B34" t="s">
+        <v>598</v>
+      </c>
+      <c r="C34" t="s">
         <v>706</v>
       </c>
-      <c r="B34" t="s">
-        <v>599</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>707</v>
       </c>
-      <c r="D34" t="s">
-        <v>708</v>
-      </c>
       <c r="E34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -8821,16 +8826,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B35" t="s">
+        <v>598</v>
+      </c>
+      <c r="C35" t="s">
         <v>709</v>
       </c>
-      <c r="B35" t="s">
-        <v>599</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>710</v>
-      </c>
-      <c r="D35" t="s">
-        <v>711</v>
       </c>
       <c r="E35" t="s">
         <v>108</v>
@@ -8841,19 +8846,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B36" t="s">
+        <v>598</v>
+      </c>
+      <c r="C36" t="s">
         <v>712</v>
       </c>
-      <c r="B36" t="s">
-        <v>599</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>713</v>
       </c>
-      <c r="D36" t="s">
-        <v>714</v>
-      </c>
       <c r="E36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
@@ -8861,19 +8866,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B37" t="s">
+        <v>598</v>
+      </c>
+      <c r="C37" t="s">
         <v>715</v>
       </c>
-      <c r="B37" t="s">
-        <v>599</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>716</v>
       </c>
-      <c r="D37" t="s">
-        <v>717</v>
-      </c>
       <c r="E37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F37" t="s">
         <v>28</v>
@@ -8881,19 +8886,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B38" t="s">
+        <v>636</v>
+      </c>
+      <c r="C38" t="s">
         <v>718</v>
       </c>
-      <c r="B38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>719</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>720</v>
-      </c>
-      <c r="E38" t="s">
-        <v>721</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -8901,16 +8906,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B39" t="s">
+        <v>598</v>
+      </c>
+      <c r="C39" t="s">
         <v>722</v>
       </c>
-      <c r="B39" t="s">
-        <v>599</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>723</v>
-      </c>
-      <c r="D39" t="s">
-        <v>724</v>
       </c>
       <c r="E39" t="s">
         <v>436</v>
@@ -8921,16 +8926,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B40" t="s">
+        <v>636</v>
+      </c>
+      <c r="C40" t="s">
         <v>725</v>
       </c>
-      <c r="B40" t="s">
-        <v>637</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>726</v>
-      </c>
-      <c r="D40" t="s">
-        <v>727</v>
       </c>
       <c r="E40" t="s">
         <v>244</v>
@@ -8941,16 +8946,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B41" t="s">
+        <v>598</v>
+      </c>
+      <c r="C41" t="s">
         <v>728</v>
       </c>
-      <c r="B41" t="s">
-        <v>599</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>729</v>
-      </c>
-      <c r="D41" t="s">
-        <v>730</v>
       </c>
       <c r="E41" t="s">
         <v>244</v>
@@ -8961,19 +8966,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B42" t="s">
+        <v>598</v>
+      </c>
+      <c r="C42" t="s">
         <v>731</v>
       </c>
-      <c r="B42" t="s">
-        <v>599</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>732</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>733</v>
-      </c>
-      <c r="E42" t="s">
-        <v>734</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
@@ -8981,16 +8986,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B43" t="s">
+        <v>636</v>
+      </c>
+      <c r="C43" t="s">
         <v>735</v>
       </c>
-      <c r="B43" t="s">
-        <v>637</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>736</v>
-      </c>
-      <c r="D43" t="s">
-        <v>737</v>
       </c>
       <c r="E43" t="s">
         <v>446</v>
@@ -9001,16 +9006,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B44" t="s">
+        <v>598</v>
+      </c>
+      <c r="C44" t="s">
         <v>738</v>
       </c>
-      <c r="B44" t="s">
-        <v>599</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>739</v>
-      </c>
-      <c r="D44" t="s">
-        <v>740</v>
       </c>
       <c r="E44" t="s">
         <v>414</v>
@@ -9021,19 +9026,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B45" t="s">
+        <v>598</v>
+      </c>
+      <c r="C45" t="s">
         <v>741</v>
       </c>
-      <c r="B45" t="s">
-        <v>599</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>742</v>
       </c>
-      <c r="D45" t="s">
-        <v>743</v>
-      </c>
       <c r="E45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
@@ -9041,16 +9046,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B46" t="s">
+        <v>636</v>
+      </c>
+      <c r="C46" t="s">
         <v>744</v>
       </c>
-      <c r="B46" t="s">
-        <v>637</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>745</v>
-      </c>
-      <c r="D46" t="s">
-        <v>746</v>
       </c>
       <c r="E46" t="s">
         <v>120</v>
@@ -9061,19 +9066,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B47" t="s">
+        <v>598</v>
+      </c>
+      <c r="C47" t="s">
         <v>747</v>
       </c>
-      <c r="B47" t="s">
-        <v>599</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>748</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>749</v>
-      </c>
-      <c r="E47" t="s">
-        <v>750</v>
       </c>
       <c r="F47" t="s">
         <v>28</v>
@@ -9081,19 +9086,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B48" t="s">
+        <v>598</v>
+      </c>
+      <c r="C48" t="s">
         <v>751</v>
       </c>
-      <c r="B48" t="s">
-        <v>599</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>752</v>
       </c>
-      <c r="D48" t="s">
-        <v>753</v>
-      </c>
       <c r="E48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -9101,19 +9106,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B49" t="s">
+        <v>598</v>
+      </c>
+      <c r="C49" t="s">
         <v>754</v>
       </c>
-      <c r="B49" t="s">
-        <v>599</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>755</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>756</v>
-      </c>
-      <c r="E49" t="s">
-        <v>757</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -9121,19 +9126,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B50" t="s">
+        <v>598</v>
+      </c>
+      <c r="C50" t="s">
         <v>758</v>
       </c>
-      <c r="B50" t="s">
-        <v>599</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>759</v>
       </c>
-      <c r="D50" t="s">
-        <v>760</v>
-      </c>
       <c r="E50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F50" t="s">
         <v>28</v>
@@ -9141,16 +9146,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B51" t="s">
+        <v>598</v>
+      </c>
+      <c r="C51" t="s">
         <v>761</v>
       </c>
-      <c r="B51" t="s">
-        <v>599</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>762</v>
-      </c>
-      <c r="D51" t="s">
-        <v>763</v>
       </c>
       <c r="E51" t="s">
         <v>264</v>
@@ -9161,16 +9166,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B52" t="s">
+        <v>640</v>
+      </c>
+      <c r="C52" t="s">
         <v>764</v>
       </c>
-      <c r="B52" t="s">
-        <v>641</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>765</v>
-      </c>
-      <c r="D52" t="s">
-        <v>766</v>
       </c>
       <c r="E52" t="s">
         <v>362</v>
@@ -9181,16 +9186,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B53" t="s">
+        <v>598</v>
+      </c>
+      <c r="C53" t="s">
         <v>767</v>
       </c>
-      <c r="B53" t="s">
-        <v>599</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>768</v>
-      </c>
-      <c r="D53" t="s">
-        <v>769</v>
       </c>
       <c r="E53" t="s">
         <v>108</v>
@@ -9242,19 +9247,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
         <v>770</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>771</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>772</v>
       </c>
-      <c r="D2" t="s">
-        <v>773</v>
-      </c>
       <c r="E2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -9262,19 +9267,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3" t="s">
         <v>774</v>
       </c>
-      <c r="B3" t="s">
-        <v>771</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>775</v>
       </c>
-      <c r="D3" t="s">
-        <v>776</v>
-      </c>
       <c r="E3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9282,19 +9287,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C4" t="s">
         <v>777</v>
       </c>
-      <c r="B4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>778</v>
       </c>
-      <c r="D4" t="s">
-        <v>779</v>
-      </c>
       <c r="E4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -9302,19 +9307,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" t="s">
         <v>780</v>
       </c>
-      <c r="B5" t="s">
-        <v>771</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>781</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>782</v>
-      </c>
-      <c r="E5" t="s">
-        <v>783</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -9322,19 +9327,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C6" t="s">
         <v>784</v>
       </c>
-      <c r="B6" t="s">
-        <v>771</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>785</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>786</v>
-      </c>
-      <c r="E6" t="s">
-        <v>787</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9342,19 +9347,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" t="s">
         <v>788</v>
       </c>
-      <c r="B7" t="s">
-        <v>771</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>789</v>
       </c>
-      <c r="D7" t="s">
-        <v>790</v>
-      </c>
       <c r="E7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -9362,19 +9367,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C8" t="s">
         <v>791</v>
       </c>
-      <c r="B8" t="s">
-        <v>771</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>792</v>
       </c>
-      <c r="D8" t="s">
-        <v>793</v>
-      </c>
       <c r="E8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9382,19 +9387,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" t="s">
         <v>794</v>
       </c>
-      <c r="B9" t="s">
-        <v>771</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>795</v>
       </c>
-      <c r="D9" t="s">
-        <v>796</v>
-      </c>
       <c r="E9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -9402,19 +9407,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C10" t="s">
         <v>797</v>
       </c>
-      <c r="B10" t="s">
-        <v>771</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>798</v>
       </c>
-      <c r="D10" t="s">
-        <v>799</v>
-      </c>
       <c r="E10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -9422,19 +9427,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C11" t="s">
         <v>800</v>
       </c>
-      <c r="B11" t="s">
-        <v>771</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>801</v>
       </c>
-      <c r="D11" t="s">
-        <v>802</v>
-      </c>
       <c r="E11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -9442,19 +9447,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" t="s">
         <v>803</v>
       </c>
-      <c r="B12" t="s">
-        <v>771</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>804</v>
       </c>
-      <c r="D12" t="s">
-        <v>805</v>
-      </c>
       <c r="E12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -9462,19 +9467,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C13" t="s">
         <v>806</v>
       </c>
-      <c r="B13" t="s">
-        <v>771</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>807</v>
       </c>
-      <c r="D13" t="s">
-        <v>808</v>
-      </c>
       <c r="E13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -9482,36 +9487,36 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" t="s">
         <v>809</v>
       </c>
-      <c r="B14" t="s">
-        <v>771</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>810</v>
       </c>
-      <c r="D14" t="s">
-        <v>811</v>
-      </c>
       <c r="E14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C15" t="s">
         <v>812</v>
       </c>
-      <c r="B15" t="s">
-        <v>771</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>813</v>
       </c>
-      <c r="D15" t="s">
-        <v>814</v>
-      </c>
       <c r="E15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -9519,19 +9524,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16" t="s">
         <v>815</v>
       </c>
-      <c r="B16" t="s">
-        <v>771</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>816</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>817</v>
-      </c>
-      <c r="E16" t="s">
-        <v>818</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -9539,19 +9544,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" t="s">
         <v>819</v>
       </c>
-      <c r="B17" t="s">
-        <v>771</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>820</v>
       </c>
-      <c r="D17" t="s">
-        <v>821</v>
-      </c>
       <c r="E17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -9559,19 +9564,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C18" t="s">
         <v>822</v>
       </c>
-      <c r="B18" t="s">
-        <v>771</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>823</v>
       </c>
-      <c r="D18" t="s">
-        <v>824</v>
-      </c>
       <c r="E18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -9579,19 +9584,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B19" t="s">
+        <v>770</v>
+      </c>
+      <c r="C19" t="s">
         <v>825</v>
       </c>
-      <c r="B19" t="s">
-        <v>771</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>826</v>
       </c>
-      <c r="D19" t="s">
-        <v>827</v>
-      </c>
       <c r="E19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -9599,19 +9604,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B20" t="s">
+        <v>770</v>
+      </c>
+      <c r="C20" t="s">
         <v>828</v>
       </c>
-      <c r="B20" t="s">
-        <v>771</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>829</v>
       </c>
-      <c r="D20" t="s">
-        <v>830</v>
-      </c>
       <c r="E20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -9619,19 +9624,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" t="s">
+        <v>770</v>
+      </c>
+      <c r="C21" t="s">
         <v>831</v>
       </c>
-      <c r="B21" t="s">
-        <v>771</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>832</v>
       </c>
-      <c r="D21" t="s">
-        <v>833</v>
-      </c>
       <c r="E21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -9639,19 +9644,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" t="s">
+        <v>770</v>
+      </c>
+      <c r="C22" t="s">
         <v>834</v>
       </c>
-      <c r="B22" t="s">
-        <v>771</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>835</v>
       </c>
-      <c r="D22" t="s">
-        <v>836</v>
-      </c>
       <c r="E22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -9659,16 +9664,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B23" t="s">
         <v>837</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>838</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>839</v>
-      </c>
-      <c r="D23" t="s">
-        <v>840</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -9679,19 +9684,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B24" t="s">
+        <v>837</v>
+      </c>
+      <c r="C24" t="s">
         <v>841</v>
       </c>
-      <c r="B24" t="s">
-        <v>838</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>842</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>843</v>
-      </c>
-      <c r="E24" t="s">
-        <v>844</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -9699,16 +9704,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B25" t="s">
+        <v>837</v>
+      </c>
+      <c r="C25" t="s">
         <v>845</v>
       </c>
-      <c r="B25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>846</v>
-      </c>
-      <c r="D25" t="s">
-        <v>847</v>
       </c>
       <c r="E25" t="s">
         <v>436</v>
@@ -9719,19 +9724,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B26" t="s">
+        <v>837</v>
+      </c>
+      <c r="C26" t="s">
         <v>848</v>
       </c>
-      <c r="B26" t="s">
-        <v>838</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>849</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>850</v>
-      </c>
-      <c r="E26" t="s">
-        <v>851</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -9739,19 +9744,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B27" t="s">
+        <v>837</v>
+      </c>
+      <c r="C27" t="s">
         <v>852</v>
       </c>
-      <c r="B27" t="s">
-        <v>838</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>853</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>854</v>
-      </c>
-      <c r="E27" t="s">
-        <v>855</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -9759,19 +9764,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B28" t="s">
+        <v>837</v>
+      </c>
+      <c r="C28" t="s">
         <v>856</v>
       </c>
-      <c r="B28" t="s">
-        <v>838</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>857</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>858</v>
-      </c>
-      <c r="E28" t="s">
-        <v>859</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -9779,19 +9784,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B29" t="s">
+        <v>837</v>
+      </c>
+      <c r="C29" t="s">
         <v>860</v>
       </c>
-      <c r="B29" t="s">
-        <v>838</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>861</v>
       </c>
-      <c r="D29" t="s">
-        <v>862</v>
-      </c>
       <c r="E29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -9799,19 +9804,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B30" t="s">
+        <v>837</v>
+      </c>
+      <c r="C30" t="s">
         <v>863</v>
       </c>
-      <c r="B30" t="s">
-        <v>838</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>864</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>865</v>
-      </c>
-      <c r="E30" t="s">
-        <v>866</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -9819,19 +9824,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B31" t="s">
+        <v>837</v>
+      </c>
+      <c r="C31" t="s">
         <v>867</v>
       </c>
-      <c r="B31" t="s">
-        <v>838</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>868</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>869</v>
-      </c>
-      <c r="E31" t="s">
-        <v>870</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -9839,36 +9844,36 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B32" t="s">
+        <v>837</v>
+      </c>
+      <c r="C32" t="s">
         <v>871</v>
       </c>
-      <c r="B32" t="s">
-        <v>838</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>872</v>
-      </c>
-      <c r="D32" t="s">
-        <v>873</v>
       </c>
       <c r="E32" t="s">
         <v>498</v>
       </c>
       <c r="F32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C33" t="s">
         <v>875</v>
       </c>
-      <c r="B33" t="s">
-        <v>838</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>876</v>
-      </c>
-      <c r="D33" t="s">
-        <v>877</v>
       </c>
       <c r="E33" t="s">
         <v>362</v>
@@ -9879,16 +9884,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B34" t="s">
+        <v>837</v>
+      </c>
+      <c r="C34" t="s">
         <v>878</v>
       </c>
-      <c r="B34" t="s">
-        <v>838</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>879</v>
-      </c>
-      <c r="D34" t="s">
-        <v>880</v>
       </c>
       <c r="E34" t="s">
         <v>291</v>
@@ -9899,16 +9904,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B35" t="s">
+        <v>837</v>
+      </c>
+      <c r="C35" t="s">
         <v>881</v>
       </c>
-      <c r="B35" t="s">
-        <v>838</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>882</v>
-      </c>
-      <c r="D35" t="s">
-        <v>883</v>
       </c>
       <c r="E35" t="s">
         <v>291</v>
@@ -9919,19 +9924,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B36" t="s">
+        <v>837</v>
+      </c>
+      <c r="C36" t="s">
         <v>884</v>
       </c>
-      <c r="B36" t="s">
-        <v>838</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>885</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>886</v>
-      </c>
-      <c r="E36" t="s">
-        <v>887</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -9939,16 +9944,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B37" t="s">
+        <v>837</v>
+      </c>
+      <c r="C37" t="s">
         <v>888</v>
       </c>
-      <c r="B37" t="s">
-        <v>838</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>889</v>
-      </c>
-      <c r="D37" t="s">
-        <v>890</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -9959,16 +9964,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B38" t="s">
         <v>891</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>892</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>893</v>
-      </c>
-      <c r="D38" t="s">
-        <v>894</v>
       </c>
       <c r="E38" t="s">
         <v>108</v>
@@ -9979,16 +9984,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B39" t="s">
+        <v>891</v>
+      </c>
+      <c r="C39" t="s">
         <v>895</v>
       </c>
-      <c r="B39" t="s">
-        <v>892</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>896</v>
-      </c>
-      <c r="D39" t="s">
-        <v>897</v>
       </c>
       <c r="E39" t="s">
         <v>108</v>
@@ -9999,19 +10004,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C40" t="s">
         <v>898</v>
       </c>
-      <c r="B40" t="s">
-        <v>892</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>899</v>
       </c>
-      <c r="D40" t="s">
-        <v>900</v>
-      </c>
       <c r="E40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
@@ -10019,16 +10024,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B41" t="s">
+        <v>891</v>
+      </c>
+      <c r="C41" t="s">
         <v>901</v>
       </c>
-      <c r="B41" t="s">
-        <v>892</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>902</v>
-      </c>
-      <c r="D41" t="s">
-        <v>903</v>
       </c>
       <c r="E41" t="s">
         <v>498</v>
@@ -10039,19 +10044,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B42" t="s">
+        <v>891</v>
+      </c>
+      <c r="C42" t="s">
         <v>904</v>
       </c>
-      <c r="B42" t="s">
-        <v>892</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>905</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>906</v>
-      </c>
-      <c r="E42" t="s">
-        <v>907</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
@@ -10059,16 +10064,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B43" t="s">
+        <v>891</v>
+      </c>
+      <c r="C43" t="s">
         <v>908</v>
       </c>
-      <c r="B43" t="s">
-        <v>892</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>909</v>
-      </c>
-      <c r="D43" t="s">
-        <v>910</v>
       </c>
       <c r="E43" t="s">
         <v>291</v>
@@ -10079,19 +10084,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B44" t="s">
+        <v>891</v>
+      </c>
+      <c r="C44" t="s">
         <v>911</v>
       </c>
-      <c r="B44" t="s">
-        <v>892</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>912</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>913</v>
-      </c>
-      <c r="E44" t="s">
-        <v>914</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
@@ -10099,19 +10104,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B45" t="s">
+        <v>891</v>
+      </c>
+      <c r="C45" t="s">
         <v>915</v>
       </c>
-      <c r="B45" t="s">
-        <v>892</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>916</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>917</v>
-      </c>
-      <c r="E45" t="s">
-        <v>918</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
@@ -10119,19 +10124,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B46" t="s">
+        <v>891</v>
+      </c>
+      <c r="C46" t="s">
         <v>919</v>
       </c>
-      <c r="B46" t="s">
-        <v>892</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>920</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>921</v>
-      </c>
-      <c r="E46" t="s">
-        <v>922</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -10139,19 +10144,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B47" t="s">
+        <v>891</v>
+      </c>
+      <c r="C47" t="s">
         <v>923</v>
       </c>
-      <c r="B47" t="s">
-        <v>892</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>924</v>
       </c>
-      <c r="D47" t="s">
-        <v>925</v>
-      </c>
       <c r="E47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F47" t="s">
         <v>28</v>
@@ -10159,19 +10164,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B48" t="s">
+        <v>891</v>
+      </c>
+      <c r="C48" t="s">
         <v>926</v>
       </c>
-      <c r="B48" t="s">
-        <v>892</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>927</v>
       </c>
-      <c r="D48" t="s">
-        <v>928</v>
-      </c>
       <c r="E48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -10179,19 +10184,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B49" t="s">
+        <v>891</v>
+      </c>
+      <c r="C49" t="s">
         <v>929</v>
       </c>
-      <c r="B49" t="s">
-        <v>892</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>930</v>
       </c>
-      <c r="D49" t="s">
-        <v>931</v>
-      </c>
       <c r="E49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -10199,19 +10204,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B50" t="s">
+        <v>891</v>
+      </c>
+      <c r="C50" t="s">
         <v>932</v>
       </c>
-      <c r="B50" t="s">
-        <v>892</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>933</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>934</v>
-      </c>
-      <c r="E50" t="s">
-        <v>935</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -10219,16 +10224,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B51" t="s">
         <v>936</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>937</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>938</v>
-      </c>
-      <c r="D51" t="s">
-        <v>939</v>
       </c>
       <c r="E51" t="s">
         <v>39</v>
@@ -10239,16 +10244,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B52" t="s">
+        <v>936</v>
+      </c>
+      <c r="C52" t="s">
         <v>940</v>
       </c>
-      <c r="B52" t="s">
-        <v>937</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>941</v>
-      </c>
-      <c r="D52" t="s">
-        <v>942</v>
       </c>
       <c r="E52" t="s">
         <v>264</v>
@@ -10259,16 +10264,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B53" t="s">
+        <v>936</v>
+      </c>
+      <c r="C53" t="s">
         <v>943</v>
       </c>
-      <c r="B53" t="s">
-        <v>937</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>944</v>
-      </c>
-      <c r="D53" t="s">
-        <v>945</v>
       </c>
       <c r="E53" t="s">
         <v>291</v>
@@ -10279,19 +10284,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B54" t="s">
+        <v>936</v>
+      </c>
+      <c r="C54" t="s">
         <v>946</v>
       </c>
-      <c r="B54" t="s">
-        <v>937</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>947</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>948</v>
-      </c>
-      <c r="E54" t="s">
-        <v>949</v>
       </c>
       <c r="F54" t="s">
         <v>28</v>
@@ -10299,19 +10304,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B55" t="s">
+        <v>936</v>
+      </c>
+      <c r="C55" t="s">
         <v>950</v>
       </c>
-      <c r="B55" t="s">
-        <v>937</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>951</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>952</v>
-      </c>
-      <c r="E55" t="s">
-        <v>953</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
@@ -10319,19 +10324,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B56" t="s">
+        <v>936</v>
+      </c>
+      <c r="C56" t="s">
         <v>954</v>
       </c>
-      <c r="B56" t="s">
-        <v>937</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>955</v>
       </c>
-      <c r="D56" t="s">
-        <v>956</v>
-      </c>
       <c r="E56" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
@@ -10339,16 +10344,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B57" t="s">
+        <v>936</v>
+      </c>
+      <c r="C57" t="s">
         <v>957</v>
       </c>
-      <c r="B57" t="s">
-        <v>937</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>958</v>
-      </c>
-      <c r="D57" t="s">
-        <v>959</v>
       </c>
       <c r="E57" t="s">
         <v>268</v>
@@ -10359,16 +10364,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B58" t="s">
+        <v>936</v>
+      </c>
+      <c r="C58" t="s">
         <v>960</v>
       </c>
-      <c r="B58" t="s">
-        <v>937</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>961</v>
-      </c>
-      <c r="D58" t="s">
-        <v>962</v>
       </c>
       <c r="E58" t="s">
         <v>268</v>
@@ -10379,16 +10384,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B59" t="s">
+        <v>936</v>
+      </c>
+      <c r="C59" t="s">
         <v>963</v>
       </c>
-      <c r="B59" t="s">
-        <v>937</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>964</v>
-      </c>
-      <c r="D59" t="s">
-        <v>965</v>
       </c>
       <c r="E59" t="s">
         <v>272</v>
@@ -10399,19 +10404,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B60" t="s">
+        <v>936</v>
+      </c>
+      <c r="C60" t="s">
         <v>966</v>
       </c>
-      <c r="B60" t="s">
-        <v>937</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>967</v>
       </c>
-      <c r="D60" t="s">
-        <v>968</v>
-      </c>
       <c r="E60" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
@@ -10419,16 +10424,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B61" t="s">
+        <v>936</v>
+      </c>
+      <c r="C61" t="s">
         <v>969</v>
       </c>
-      <c r="B61" t="s">
-        <v>937</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>970</v>
-      </c>
-      <c r="D61" t="s">
-        <v>971</v>
       </c>
       <c r="E61" t="s">
         <v>236</v>
@@ -10439,16 +10444,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B62" t="s">
+        <v>936</v>
+      </c>
+      <c r="C62" t="s">
         <v>972</v>
       </c>
-      <c r="B62" t="s">
-        <v>937</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>973</v>
-      </c>
-      <c r="D62" t="s">
-        <v>974</v>
       </c>
       <c r="E62" t="s">
         <v>244</v>
@@ -10459,16 +10464,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B63" t="s">
+        <v>936</v>
+      </c>
+      <c r="C63" t="s">
         <v>975</v>
       </c>
-      <c r="B63" t="s">
-        <v>937</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>976</v>
-      </c>
-      <c r="D63" t="s">
-        <v>977</v>
       </c>
       <c r="E63" t="s">
         <v>120</v>
@@ -10479,19 +10484,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B64" t="s">
+        <v>936</v>
+      </c>
+      <c r="C64" t="s">
         <v>978</v>
       </c>
-      <c r="B64" t="s">
-        <v>937</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>979</v>
       </c>
-      <c r="D64" t="s">
-        <v>980</v>
-      </c>
       <c r="E64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F64" t="s">
         <v>28</v>
@@ -10499,19 +10504,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B65" t="s">
+        <v>936</v>
+      </c>
+      <c r="C65" t="s">
         <v>981</v>
       </c>
-      <c r="B65" t="s">
-        <v>937</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>982</v>
       </c>
-      <c r="D65" t="s">
-        <v>983</v>
-      </c>
       <c r="E65" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F65" t="s">
         <v>28</v>
@@ -10519,16 +10524,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B66" t="s">
+        <v>936</v>
+      </c>
+      <c r="C66" t="s">
         <v>984</v>
       </c>
-      <c r="B66" t="s">
-        <v>937</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>985</v>
-      </c>
-      <c r="D66" t="s">
-        <v>986</v>
       </c>
       <c r="E66" t="s">
         <v>264</v>
@@ -10539,16 +10544,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B67" t="s">
         <v>987</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>988</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>989</v>
-      </c>
-      <c r="D67" t="s">
-        <v>990</v>
       </c>
       <c r="E67" t="s">
         <v>325</v>
@@ -10559,16 +10564,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B68" t="s">
+        <v>987</v>
+      </c>
+      <c r="C68" t="s">
         <v>991</v>
       </c>
-      <c r="B68" t="s">
-        <v>988</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>992</v>
-      </c>
-      <c r="D68" t="s">
-        <v>993</v>
       </c>
       <c r="E68" t="s">
         <v>325</v>
@@ -10579,36 +10584,36 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B69" t="s">
+        <v>987</v>
+      </c>
+      <c r="C69" t="s">
         <v>994</v>
       </c>
-      <c r="B69" t="s">
-        <v>988</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>995</v>
-      </c>
-      <c r="D69" t="s">
-        <v>996</v>
       </c>
       <c r="E69" t="s">
         <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B70" t="s">
+        <v>987</v>
+      </c>
+      <c r="C70" t="s">
         <v>997</v>
       </c>
-      <c r="B70" t="s">
-        <v>988</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>998</v>
-      </c>
-      <c r="D70" t="s">
-        <v>999</v>
       </c>
       <c r="E70" t="s">
         <v>272</v>
@@ -10619,16 +10624,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B71" t="s">
+        <v>987</v>
+      </c>
+      <c r="C71" t="s">
         <v>1000</v>
       </c>
-      <c r="B71" t="s">
-        <v>988</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>1001</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1002</v>
       </c>
       <c r="E71" t="s">
         <v>272</v>
@@ -10639,16 +10644,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>987</v>
+      </c>
+      <c r="C72" t="s">
         <v>1003</v>
       </c>
-      <c r="B72" t="s">
-        <v>988</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>1004</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1005</v>
       </c>
       <c r="E72" t="s">
         <v>236</v>
@@ -10659,16 +10664,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B73" t="s">
+        <v>987</v>
+      </c>
+      <c r="C73" t="s">
         <v>1006</v>
       </c>
-      <c r="B73" t="s">
-        <v>988</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>1007</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1008</v>
       </c>
       <c r="E73" t="s">
         <v>264</v>
@@ -10679,36 +10684,36 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>987</v>
+      </c>
+      <c r="C74" t="s">
         <v>1009</v>
       </c>
-      <c r="B74" t="s">
-        <v>988</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>1010</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>1011</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B75" t="s">
+        <v>987</v>
+      </c>
+      <c r="C75" t="s">
         <v>1013</v>
       </c>
-      <c r="B75" t="s">
-        <v>988</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>1014</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>1015</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1016</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -10716,16 +10721,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B76" t="s">
+        <v>987</v>
+      </c>
+      <c r="C76" t="s">
         <v>1017</v>
       </c>
-      <c r="B76" t="s">
-        <v>988</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>1018</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1019</v>
       </c>
       <c r="E76" t="s">
         <v>108</v>
@@ -10743,8 +10748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10779,16 +10784,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D2" t="s">
         <v>1021</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1022</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -10799,16 +10804,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D3" t="s">
         <v>1024</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1025</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -10819,16 +10824,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B4" t="s">
         <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E4" t="s">
         <v>264</v>
@@ -10839,16 +10844,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B5" t="s">
         <v>264</v>
       </c>
       <c r="C5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D5" t="s">
         <v>1029</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1030</v>
       </c>
       <c r="E5" t="s">
         <v>264</v>
@@ -10859,16 +10864,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B6" t="s">
         <v>264</v>
       </c>
       <c r="C6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D6" t="s">
         <v>1032</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1033</v>
       </c>
       <c r="E6" t="s">
         <v>264</v>
@@ -10879,19 +10884,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D7" t="s">
         <v>1034</v>
       </c>
-      <c r="B7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1035</v>
-      </c>
       <c r="E7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -10899,19 +10904,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
         <v>1036</v>
       </c>
-      <c r="B8" t="s">
-        <v>671</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1037</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1038</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1039</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -10919,19 +10924,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" t="s">
         <v>1040</v>
       </c>
-      <c r="B9" t="s">
-        <v>671</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1041</v>
       </c>
-      <c r="D9" t="s">
-        <v>1042</v>
-      </c>
       <c r="E9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10939,16 +10944,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B10" t="s">
         <v>1043</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1044</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1045</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1046</v>
       </c>
       <c r="E10" t="s">
         <v>498</v>
@@ -10959,16 +10964,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C11" t="s">
         <v>1047</v>
       </c>
-      <c r="B11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1048</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1049</v>
       </c>
       <c r="E11" t="s">
         <v>268</v>
@@ -10979,16 +10984,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C12" t="s">
         <v>1050</v>
       </c>
-      <c r="B12" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1051</v>
-      </c>
       <c r="D12" t="s">
-        <v>1052</v>
+        <v>1359</v>
       </c>
       <c r="E12" t="s">
         <v>108</v>
@@ -11043,19 +11048,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C2" t="s">
         <v>1055</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1056</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1057</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1059</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -11063,16 +11068,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D3" t="s">
         <v>1060</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1062</v>
       </c>
       <c r="E3" t="s">
         <v>362</v>
@@ -11083,16 +11088,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D4" t="s">
         <v>1063</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1065</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -11103,16 +11108,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D5" t="s">
         <v>1066</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1068</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -11123,19 +11128,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D6" t="s">
         <v>1069</v>
       </c>
-      <c r="B6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>1070</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1072</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -11143,16 +11148,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C7" t="s">
         <v>1073</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>1074</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1076</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -11163,16 +11168,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D8" t="s">
         <v>1077</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1079</v>
       </c>
       <c r="E8" t="s">
         <v>120</v>
@@ -11183,16 +11188,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D9" t="s">
         <v>1080</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1082</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -11203,19 +11208,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D10" t="s">
         <v>1083</v>
       </c>
-      <c r="B10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>1084</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1086</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -11223,19 +11228,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D11" t="s">
         <v>1087</v>
       </c>
-      <c r="B11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>1088</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1090</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -11243,19 +11248,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D12" t="s">
         <v>1091</v>
       </c>
-      <c r="B12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1093</v>
-      </c>
       <c r="E12" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -11263,19 +11268,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D13" t="s">
         <v>1094</v>
       </c>
-      <c r="B13" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1096</v>
-      </c>
       <c r="E13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -11283,19 +11288,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D14" t="s">
         <v>1097</v>
       </c>
-      <c r="B14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1099</v>
-      </c>
       <c r="E14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -11303,19 +11308,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D15" t="s">
         <v>1100</v>
       </c>
-      <c r="B15" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>1101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1103</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -11323,19 +11328,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -11343,16 +11348,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -11363,16 +11368,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D18" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -11383,16 +11388,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -11403,16 +11408,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -11423,16 +11428,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D21" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -11443,16 +11448,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D22" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -11463,16 +11468,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C23" t="s">
         <v>1125</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>1126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1128</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -11483,19 +11488,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D24" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E24" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -11503,16 +11508,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D25" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -11523,16 +11528,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D26" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -11543,19 +11548,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E27" t="s">
         <v>1138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1140</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -11563,19 +11568,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E28" t="s">
         <v>1142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1144</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -11583,16 +11588,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D29" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -11603,19 +11608,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C30" t="s">
         <v>1148</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>1149</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>1150</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1152</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -11623,19 +11628,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E31" t="s">
         <v>1154</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1156</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -11643,19 +11648,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D32" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -11663,7 +11668,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -11672,7 +11677,7 @@
         <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E33" t="s">
         <v>152</v>
@@ -11683,16 +11688,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D34" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E34" t="s">
         <v>27</v>
@@ -11703,19 +11708,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E35" t="s">
         <v>1165</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1167</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -11723,16 +11728,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -11743,16 +11748,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D37" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -11763,16 +11768,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D38" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E38" t="s">
         <v>71</v>
@@ -11783,16 +11788,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D39" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
@@ -11803,16 +11808,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D40" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E40" t="s">
         <v>115</v>
@@ -11823,16 +11828,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D41" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E41" t="s">
         <v>95</v>
@@ -11843,16 +11848,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D42" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
@@ -11863,16 +11868,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D43" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E43" t="s">
         <v>95</v>
@@ -11883,16 +11888,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D44" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
@@ -11903,16 +11908,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D45" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
@@ -11923,19 +11928,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B46" t="s">
         <v>229</v>
       </c>
       <c r="C46" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E46" t="s">
         <v>1198</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1200</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -11943,19 +11948,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B47" t="s">
         <v>229</v>
       </c>
       <c r="C47" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E47" t="s">
         <v>1202</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1204</v>
       </c>
       <c r="F47" t="s">
         <v>28</v>
@@ -11963,16 +11968,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B48" t="s">
         <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D48" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E48" t="s">
         <v>407</v>
@@ -11983,19 +11988,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B49" t="s">
         <v>229</v>
       </c>
       <c r="C49" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D49" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E49" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -12003,16 +12008,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C50" t="s">
         <v>1211</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>1212</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1214</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -12023,16 +12028,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D51" t="s">
         <v>1215</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1217</v>
       </c>
       <c r="E51" t="s">
         <v>120</v>
@@ -12043,16 +12048,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D52" t="s">
         <v>1218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1220</v>
       </c>
       <c r="E52" t="s">
         <v>120</v>
@@ -12063,16 +12068,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D53" t="s">
         <v>1221</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1223</v>
       </c>
       <c r="E53" t="s">
         <v>120</v>
@@ -12083,16 +12088,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D54" t="s">
         <v>1224</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1226</v>
       </c>
       <c r="E54" t="s">
         <v>120</v>
@@ -12103,16 +12108,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D55" t="s">
         <v>1227</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1229</v>
       </c>
       <c r="E55" t="s">
         <v>120</v>
@@ -12123,16 +12128,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D56" t="s">
         <v>1230</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1232</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
@@ -12143,22 +12148,22 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D57" t="s">
         <v>1233</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1235</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -12170,7 +12175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12206,16 +12211,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D2" t="s">
         <v>1239</v>
-      </c>
-      <c r="B2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1241</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -12226,16 +12231,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D3" t="s">
         <v>1242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>838</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1244</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -12246,19 +12251,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D4" t="s">
         <v>1245</v>
       </c>
-      <c r="B4" t="s">
-        <v>838</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>1246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1248</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -12266,16 +12271,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D5" t="s">
         <v>1249</v>
-      </c>
-      <c r="B5" t="s">
-        <v>838</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1251</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -12286,16 +12291,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>837</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D6" t="s">
         <v>1252</v>
-      </c>
-      <c r="B6" t="s">
-        <v>838</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1254</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -12306,16 +12311,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D7" t="s">
         <v>1255</v>
-      </c>
-      <c r="B7" t="s">
-        <v>838</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1257</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -12326,16 +12331,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C8" t="s">
         <v>377</v>
       </c>
       <c r="D8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E8" t="s">
         <v>120</v>
@@ -12346,16 +12351,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>837</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D9" t="s">
         <v>1260</v>
-      </c>
-      <c r="B9" t="s">
-        <v>838</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1262</v>
       </c>
       <c r="E9" t="s">
         <v>120</v>
@@ -12366,19 +12371,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D10" t="s">
         <v>1263</v>
       </c>
-      <c r="B10" t="s">
-        <v>838</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1265</v>
-      </c>
       <c r="E10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -12386,19 +12391,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D11" t="s">
         <v>1266</v>
       </c>
-      <c r="B11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1268</v>
-      </c>
       <c r="E11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -12406,16 +12411,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>837</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D12" t="s">
         <v>1269</v>
-      </c>
-      <c r="B12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1271</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -12426,16 +12431,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>837</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D13" t="s">
         <v>1272</v>
-      </c>
-      <c r="B13" t="s">
-        <v>838</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1274</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -12446,16 +12451,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>837</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D14" t="s">
         <v>1275</v>
-      </c>
-      <c r="B14" t="s">
-        <v>838</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1277</v>
       </c>
       <c r="E14" t="s">
         <v>264</v>
@@ -12466,16 +12471,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D15" t="s">
         <v>1278</v>
-      </c>
-      <c r="B15" t="s">
-        <v>838</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1280</v>
       </c>
       <c r="E15" t="s">
         <v>108</v>
@@ -12486,19 +12491,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>837</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D16" t="s">
         <v>1281</v>
       </c>
-      <c r="B16" t="s">
-        <v>838</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1283</v>
-      </c>
       <c r="E16" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -12506,16 +12511,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B17" t="s">
+        <v>837</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D17" t="s">
         <v>1284</v>
-      </c>
-      <c r="B17" t="s">
-        <v>838</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1286</v>
       </c>
       <c r="E17" t="s">
         <v>264</v>
@@ -12526,16 +12531,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B18" t="s">
+        <v>837</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D18" t="s">
         <v>1287</v>
-      </c>
-      <c r="B18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1289</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
@@ -12546,16 +12551,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>837</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D19" t="s">
         <v>1290</v>
-      </c>
-      <c r="B19" t="s">
-        <v>838</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1292</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -12566,19 +12571,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D20" t="s">
         <v>1293</v>
       </c>
-      <c r="B20" t="s">
-        <v>838</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1295</v>
-      </c>
       <c r="E20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -12586,16 +12591,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B21" t="s">
+        <v>837</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D21" t="s">
         <v>1296</v>
-      </c>
-      <c r="B21" t="s">
-        <v>838</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1298</v>
       </c>
       <c r="E21" t="s">
         <v>498</v>
@@ -12606,16 +12611,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D22" t="s">
         <v>1299</v>
-      </c>
-      <c r="B22" t="s">
-        <v>838</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1301</v>
       </c>
       <c r="E22" t="s">
         <v>268</v>
@@ -12626,16 +12631,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D23" t="s">
         <v>1302</v>
-      </c>
-      <c r="B23" t="s">
-        <v>838</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1304</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -12646,16 +12651,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>837</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D24" t="s">
         <v>1305</v>
-      </c>
-      <c r="B24" t="s">
-        <v>838</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1307</v>
       </c>
       <c r="E24" t="s">
         <v>291</v>
@@ -12666,16 +12671,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>837</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D25" t="s">
         <v>1308</v>
-      </c>
-      <c r="B25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1310</v>
       </c>
       <c r="E25" t="s">
         <v>236</v>
@@ -12686,16 +12691,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B26" t="s">
+        <v>837</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D26" t="s">
         <v>1311</v>
-      </c>
-      <c r="B26" t="s">
-        <v>838</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1313</v>
       </c>
       <c r="E26" t="s">
         <v>264</v>
@@ -12706,16 +12711,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B27" t="s">
+        <v>837</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D27" t="s">
         <v>1314</v>
-      </c>
-      <c r="B27" t="s">
-        <v>838</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1316</v>
       </c>
       <c r="E27" t="s">
         <v>236</v>
@@ -12726,16 +12731,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C28" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D28" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E28" t="s">
         <v>236</v>
@@ -12746,16 +12751,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B29" t="s">
+        <v>837</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D29" t="s">
         <v>1319</v>
-      </c>
-      <c r="B29" t="s">
-        <v>838</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1321</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -12766,16 +12771,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B30" t="s">
+        <v>837</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D30" t="s">
         <v>1322</v>
-      </c>
-      <c r="B30" t="s">
-        <v>838</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1324</v>
       </c>
       <c r="E30" t="s">
         <v>268</v>
@@ -12786,16 +12791,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B31" t="s">
+        <v>837</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D31" t="s">
         <v>1325</v>
-      </c>
-      <c r="B31" t="s">
-        <v>838</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1327</v>
       </c>
       <c r="E31" t="s">
         <v>108</v>
@@ -12806,16 +12811,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B32" t="s">
+        <v>837</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D32" t="s">
         <v>1328</v>
-      </c>
-      <c r="B32" t="s">
-        <v>838</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1330</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -12826,16 +12831,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D33" t="s">
         <v>1331</v>
-      </c>
-      <c r="B33" t="s">
-        <v>838</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1333</v>
       </c>
       <c r="E33" t="s">
         <v>268</v>
@@ -12846,16 +12851,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B34" t="s">
+        <v>837</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D34" t="s">
         <v>1334</v>
-      </c>
-      <c r="B34" t="s">
-        <v>838</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1336</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
@@ -12866,19 +12871,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>837</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D35" t="s">
         <v>1337</v>
       </c>
-      <c r="B35" t="s">
-        <v>838</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>1338</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1340</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -12886,16 +12891,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B36" t="s">
+        <v>837</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D36" t="s">
         <v>1341</v>
-      </c>
-      <c r="B36" t="s">
-        <v>838</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1343</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -12906,16 +12911,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>837</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D37" t="s">
         <v>1344</v>
-      </c>
-      <c r="B37" t="s">
-        <v>838</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1346</v>
       </c>
       <c r="E37" t="s">
         <v>236</v>
@@ -12926,16 +12931,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B38" t="s">
+        <v>837</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D38" t="s">
         <v>1347</v>
-      </c>
-      <c r="B38" t="s">
-        <v>838</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1349</v>
       </c>
       <c r="E38" t="s">
         <v>268</v>
@@ -12946,19 +12951,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B39" t="s">
+        <v>837</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D39" t="s">
         <v>1350</v>
       </c>
-      <c r="B39" t="s">
-        <v>838</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>1351</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1353</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
@@ -12966,16 +12971,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B40" t="s">
+        <v>837</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D40" t="s">
         <v>1354</v>
-      </c>
-      <c r="B40" t="s">
-        <v>838</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1356</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -12986,16 +12991,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B41" t="s">
+        <v>837</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D41" t="s">
         <v>1357</v>
-      </c>
-      <c r="B41" t="s">
-        <v>838</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1359</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>

--- a/files/Ruleset-Literature.xlsx
+++ b/files/Ruleset-Literature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elements of Java Style" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="SoPra Dortmund" sheetId="5" r:id="rId5"/>
     <sheet name="Google Styleguide" sheetId="6" r:id="rId6"/>
     <sheet name="Solid Code" sheetId="7" r:id="rId7"/>
+    <sheet name="SoftAudit" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Ruleset_Clean_Code" localSheetId="1">'Clean Code'!$A$1:$F$67</definedName>
@@ -21,6 +22,7 @@
     <definedName name="Ruleset_Elements_Of_Java_Style" localSheetId="0">'Elements of Java Style'!$A$1:$F$109</definedName>
     <definedName name="Ruleset_Google_Styleguide" localSheetId="5">'Google Styleguide'!$A$1:$G$57</definedName>
     <definedName name="Ruleset_Java_Coding_Guidelines" localSheetId="3">'Java Coding Guidelines'!$A$1:$F$76</definedName>
+    <definedName name="Ruleset_SoftAudit" localSheetId="7">SoftAudit!$A$1:$F$81</definedName>
     <definedName name="Ruleset_Softwarepraktikum_Dortmund" localSheetId="4">'SoPra Dortmund'!$A$1:$F$12</definedName>
     <definedName name="Ruleset_Solid_Code" localSheetId="6">'Solid Code'!$A$1:$F$41</definedName>
   </definedNames>
@@ -90,7 +92,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="Ruleset_Softwarepraktikum-Dortmund" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="6" name="Ruleset_SoftAudit" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Develop\Diplom\git_repo\files\Ruleset_SoftAudit.csv" decimal="," thousands="." tab="0" semicolon="1" qualifier="none">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="Ruleset_Softwarepraktikum-Dortmund" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Develop\Diplom\git_repo\files\Ruleset_Softwarepraktikum-Dortmund.csv" decimal="," thousands="." tab="0" semicolon="1" qualifier="none">
       <textFields count="6">
         <textField type="text"/>
@@ -102,7 +116,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="Ruleset_Solid-Code" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="8" name="Ruleset_Solid-Code" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Develop\Diplom\git_repo\files\Ruleset_Solid-Code.csv" decimal="," thousands="." tab="0" semicolon="1" qualifier="none">
       <textFields count="6">
         <textField/>
@@ -118,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="1607">
   <si>
     <t>ID</t>
   </si>
@@ -4198,6 +4212,747 @@
   </si>
   <si>
     <t>Eventuell "keine privaten Klassenvariablen"</t>
+  </si>
+  <si>
+    <t>SOA-001</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>IO Operations must be contained be in a try block</t>
+  </si>
+  <si>
+    <t>IO-Operationen immer in try-block</t>
+  </si>
+  <si>
+    <t>SOA-002</t>
+  </si>
+  <si>
+    <t>Two Dimensional Arrays conflict with 1. Normal Form</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>DataTypes</t>
+  </si>
+  <si>
+    <t>SOA-003</t>
+  </si>
+  <si>
+    <t>Data Redefinitions conflict with 2. Normal Form</t>
+  </si>
+  <si>
+    <t>SOA-004</t>
+  </si>
+  <si>
+    <t>Data Casting should be avoided</t>
+  </si>
+  <si>
+    <t>Casting nicht verwenden</t>
+  </si>
+  <si>
+    <t>SOA-005</t>
+  </si>
+  <si>
+    <t>SECU</t>
+  </si>
+  <si>
+    <t>Constructor Methods should not be duplicated</t>
+  </si>
+  <si>
+    <t>Konstruktoren nicht überladen</t>
+  </si>
+  <si>
+    <t>SOA-006</t>
+  </si>
+  <si>
+    <t>Synchronization should be avoided</t>
+  </si>
+  <si>
+    <t>Synchronized nicht verwenden</t>
+  </si>
+  <si>
+    <t>SOA-007</t>
+  </si>
+  <si>
+    <t>Method Invocation with array of objects should be in try block</t>
+  </si>
+  <si>
+    <t>Methodenaufruf mit Objektliste immer in try-Block</t>
+  </si>
+  <si>
+    <t>SOA-008</t>
+  </si>
+  <si>
+    <t>Return Value is not controlled after method invocation</t>
+  </si>
+  <si>
+    <t>Rückgabewerte von Methoden überprüfen</t>
+  </si>
+  <si>
+    <t>SOA-009</t>
+  </si>
+  <si>
+    <t>Conditions should not contain an Assignment</t>
+  </si>
+  <si>
+    <t>Keine Wertzuweisung in Bedingungen</t>
+  </si>
+  <si>
+    <t>Conditionals, Operators</t>
+  </si>
+  <si>
+    <t>SOA-010</t>
+  </si>
+  <si>
+    <t>Break is missing in switch Statement</t>
+  </si>
+  <si>
+    <t>Jede case-Anweisung soll mit break abgeschlossen werden</t>
+  </si>
+  <si>
+    <t>SOA-011</t>
+  </si>
+  <si>
+    <t>Default is missing in switch Statement</t>
+  </si>
+  <si>
+    <t>Jede Switch-Anweisung sollte default-case haben</t>
+  </si>
+  <si>
+    <t>SOA-012</t>
+  </si>
+  <si>
+    <t>Control logic exceeds maximum Nesting Level</t>
+  </si>
+  <si>
+    <t>Maximale Verschachtelungstiefe von 5</t>
+  </si>
+  <si>
+    <t>SOA-013</t>
+  </si>
+  <si>
+    <t>More than one Statement on a Line</t>
+  </si>
+  <si>
+    <t>Nur eine Anweisung je Zeile</t>
+  </si>
+  <si>
+    <t>SOA-014</t>
+  </si>
+  <si>
+    <t>Class Variables should never be declared public</t>
+  </si>
+  <si>
+    <t>Keine öffentlichen klassenvariablen</t>
+  </si>
+  <si>
+    <t>SOA-015</t>
+  </si>
+  <si>
+    <t>instanceof should not be used</t>
+  </si>
+  <si>
+    <t>instanceof nicht benutzen</t>
+  </si>
+  <si>
+    <t>SOA-016</t>
+  </si>
+  <si>
+    <t>External Method Invocation should have a Class Reference</t>
+  </si>
+  <si>
+    <t>SOA-017</t>
+  </si>
+  <si>
+    <t>Return Values should be checked</t>
+  </si>
+  <si>
+    <t>Rückgabewerte überprüfen</t>
+  </si>
+  <si>
+    <t>SOA-018</t>
+  </si>
+  <si>
+    <t>Derived class is not declared as final</t>
+  </si>
+  <si>
+    <t>Erbende Klassen als final deklarieren</t>
+  </si>
+  <si>
+    <t>Classes, Inheritance</t>
+  </si>
+  <si>
+    <t>SOA-019</t>
+  </si>
+  <si>
+    <t>Class should not contain labels</t>
+  </si>
+  <si>
+    <t>Keine labels in Klassen verwenden</t>
+  </si>
+  <si>
+    <t>SOA-020</t>
+  </si>
+  <si>
+    <t>Class attribute names should be qualified</t>
+  </si>
+  <si>
+    <t>Sichtbarkeit von klassenvariablen angeben</t>
+  </si>
+  <si>
+    <t>SOA-021</t>
+  </si>
+  <si>
+    <t>equals should be used to compare objects</t>
+  </si>
+  <si>
+    <t>Equals zum vergleichen von Objekten verwenden</t>
+  </si>
+  <si>
+    <t>SOA-022</t>
+  </si>
+  <si>
+    <t>Interface definition should be in a separate source file</t>
+  </si>
+  <si>
+    <t>Interfaces in eigene Quelldatei schreiben</t>
+  </si>
+  <si>
+    <t>SOA-023</t>
+  </si>
+  <si>
+    <t>SOA-024</t>
+  </si>
+  <si>
+    <t>Returning a function may cause an endless loop</t>
+  </si>
+  <si>
+    <t>Keine Methoden zurückgeben</t>
+  </si>
+  <si>
+    <t>SOA-025</t>
+  </si>
+  <si>
+    <t>Number of catches does not match number of tries</t>
+  </si>
+  <si>
+    <t>Nur 1 Catch je Try</t>
+  </si>
+  <si>
+    <t>SOA-026</t>
+  </si>
+  <si>
+    <t>DEFI</t>
+  </si>
+  <si>
+    <t>Source module exceeds maximum size limit</t>
+  </si>
+  <si>
+    <t>Quelldateien maximal 1000 Zeilen lang</t>
+  </si>
+  <si>
+    <t>SOA-027</t>
+  </si>
+  <si>
+    <t>Source module has more than maximum allowed Statements</t>
+  </si>
+  <si>
+    <t>Quelldateien maximal 500 Anweisungen</t>
+  </si>
+  <si>
+    <t>SOA-028</t>
+  </si>
+  <si>
+    <t>Source module has more than maximum allowed Imports</t>
+  </si>
+  <si>
+    <t>Maximal 10 imports je Quelldatei</t>
+  </si>
+  <si>
+    <t>SOA-029</t>
+  </si>
+  <si>
+    <t>Source module has more than maximum allowed Variables</t>
+  </si>
+  <si>
+    <t>Maximal 100 Variablen je Klasse</t>
+  </si>
+  <si>
+    <t>SOA-030</t>
+  </si>
+  <si>
+    <t>Source module has more than maximum allowed Interfaces</t>
+  </si>
+  <si>
+    <t>Maximal 4 "Dateninterfaces" je Klasse</t>
+  </si>
+  <si>
+    <t>SOA-031</t>
+  </si>
+  <si>
+    <t>Source module has more than maximum allowed Classes</t>
+  </si>
+  <si>
+    <t>Maximal 10 Klassen je package (?)</t>
+  </si>
+  <si>
+    <t>SOA-032</t>
+  </si>
+  <si>
+    <t>Source module has more than maximum allowed Methods</t>
+  </si>
+  <si>
+    <t>Maximal 20 Methoden je Klasse</t>
+  </si>
+  <si>
+    <t>SOA-033</t>
+  </si>
+  <si>
+    <t>Class exceeds maximum size limit</t>
+  </si>
+  <si>
+    <t>Klassen nicht zu groß</t>
+  </si>
+  <si>
+    <t>SOA-034</t>
+  </si>
+  <si>
+    <t>Method exceeds maximum size limit</t>
+  </si>
+  <si>
+    <t>Methoden nicht zu groß</t>
+  </si>
+  <si>
+    <t>SOA-035</t>
+  </si>
+  <si>
+    <t>Method has more than maximum allowed Parameters</t>
+  </si>
+  <si>
+    <t>Maximal 7 Parameter je Methode</t>
+  </si>
+  <si>
+    <t>SOA-036</t>
+  </si>
+  <si>
+    <t>Module references too many foreign Methods</t>
+  </si>
+  <si>
+    <t>Maximal 20 Fremdmethodenaufrufe je Klasse</t>
+  </si>
+  <si>
+    <t>SOA-037</t>
+  </si>
+  <si>
+    <t>Package should have a documentation header</t>
+  </si>
+  <si>
+    <t>package.info Datei für jedes package</t>
+  </si>
+  <si>
+    <t>Structure, Comments</t>
+  </si>
+  <si>
+    <t>SOA-038</t>
+  </si>
+  <si>
+    <t>Interface should have a documentation header</t>
+  </si>
+  <si>
+    <t>Javadoc für interfaces</t>
+  </si>
+  <si>
+    <t>SOA-039</t>
+  </si>
+  <si>
+    <t>Class should have a documentation header</t>
+  </si>
+  <si>
+    <t>Javadoc für Klassen</t>
+  </si>
+  <si>
+    <t>SOA-040</t>
+  </si>
+  <si>
+    <t>Method should have a documentation header</t>
+  </si>
+  <si>
+    <t>Javadoc für Methoden</t>
+  </si>
+  <si>
+    <t>SOA-041</t>
+  </si>
+  <si>
+    <t>Compound Condition has more than two condition clauses</t>
+  </si>
+  <si>
+    <t>Bedingungen nicht aus mehr als 2 Komponenten zusammen setzen</t>
+  </si>
+  <si>
+    <t>SOA-042</t>
+  </si>
+  <si>
+    <t>DEDI</t>
+  </si>
+  <si>
+    <t>? Operation should not be used in Expressions</t>
+  </si>
+  <si>
+    <t>Terniären Operator nicht verwenden</t>
+  </si>
+  <si>
+    <t>SOA-043</t>
+  </si>
+  <si>
+    <t>Documentation header should include a code tag</t>
+  </si>
+  <si>
+    <t>Code tag in Javadoc</t>
+  </si>
+  <si>
+    <t>SOA-044</t>
+  </si>
+  <si>
+    <t>Methods without Return value should be void</t>
+  </si>
+  <si>
+    <t>Methoden ohne Rückgabewert sollten void sein</t>
+  </si>
+  <si>
+    <t>SOA-045</t>
+  </si>
+  <si>
+    <t>String Vectors should be avoided</t>
+  </si>
+  <si>
+    <t>String-Vektoren nicht verwenden</t>
+  </si>
+  <si>
+    <t>SOA-046</t>
+  </si>
+  <si>
+    <t>Constants in procedural statements are forbidden</t>
+  </si>
+  <si>
+    <t>Keine Magic Numbers</t>
+  </si>
+  <si>
+    <t>SOA-047</t>
+  </si>
+  <si>
+    <t>Literals in procedural statements are forbidden</t>
+  </si>
+  <si>
+    <t>keine STring Literale</t>
+  </si>
+  <si>
+    <t>SOA-048</t>
+  </si>
+  <si>
+    <t>Embedded SQL functions should be avoided</t>
+  </si>
+  <si>
+    <t>Keine eingebetteten SQL-Anweisungen</t>
+  </si>
+  <si>
+    <t>SOA-049</t>
+  </si>
+  <si>
+    <t>SQL Statement strings in code are vulnerable</t>
+  </si>
+  <si>
+    <t>SOA-050</t>
+  </si>
+  <si>
+    <t>WARN</t>
+  </si>
+  <si>
+    <t>Imports should proceed all other statements</t>
+  </si>
+  <si>
+    <t>Import Anweisungen vor allen anderen</t>
+  </si>
+  <si>
+    <t>SOA-051</t>
+  </si>
+  <si>
+    <t>Database Accesses are restricted to access classes</t>
+  </si>
+  <si>
+    <t>DB-Zugriffe in eigener Klasse kapseln</t>
+  </si>
+  <si>
+    <t>SOA-052</t>
+  </si>
+  <si>
+    <t>Nested Code should be indented by at least two columns</t>
+  </si>
+  <si>
+    <t>Einrückung</t>
+  </si>
+  <si>
+    <t>SOA-053</t>
+  </si>
+  <si>
+    <t>Code Line should not exceed maximum length of 120 Characters</t>
+  </si>
+  <si>
+    <t>Zeilenlänge maximal 120</t>
+  </si>
+  <si>
+    <t>SOA-054</t>
+  </si>
+  <si>
+    <t>Data Declaration should be followed by a Comment //</t>
+  </si>
+  <si>
+    <t>Variablendeklaration durch Kommentar in gleicher Zeile erklären</t>
+  </si>
+  <si>
+    <t>SOA-055</t>
+  </si>
+  <si>
+    <t>Structure &amp; union declarations should be proceeded by a comment</t>
+  </si>
+  <si>
+    <t>Struktur / Vereinigung durch Kommentar erklären</t>
+  </si>
+  <si>
+    <t>SOA-056</t>
+  </si>
+  <si>
+    <t>End Bracket should be followed by a Comment //</t>
+  </si>
+  <si>
+    <t>Schließenden Block durch Kommentar in gleicher Zeile erklären</t>
+  </si>
+  <si>
+    <t>SOA-057</t>
+  </si>
+  <si>
+    <t>Control Command should be on a separate line</t>
+  </si>
+  <si>
+    <t>Kontrollanweisungen in eigener Zeile</t>
+  </si>
+  <si>
+    <t>SOA-058</t>
+  </si>
+  <si>
+    <t>Numeric constants should not start with a decimal point</t>
+  </si>
+  <si>
+    <t>Numerische Konstanten nicht mit . anfangen</t>
+  </si>
+  <si>
+    <t>SOA-059</t>
+  </si>
+  <si>
+    <t>{ Open Block Bracket should be on a separate line</t>
+  </si>
+  <si>
+    <t>Öffnende geschweifte Klammer in eigener Zeile</t>
+  </si>
+  <si>
+    <t>SOA-060</t>
+  </si>
+  <si>
+    <t>} Close Block Bracket should be on a separate line</t>
+  </si>
+  <si>
+    <t>Scließende geschweifte Klammer in eigener Zeile</t>
+  </si>
+  <si>
+    <t>SOA-061</t>
+  </si>
+  <si>
+    <t>Left Parenthesis ( should be proceeded by a space</t>
+  </si>
+  <si>
+    <t>Leerzeichen nach öffnender Klammer</t>
+  </si>
+  <si>
+    <t>SOA-062</t>
+  </si>
+  <si>
+    <t>Right Parenthesis ) should be followed by a space or Semicolon</t>
+  </si>
+  <si>
+    <t>Semikolon oder Leerzeichen nach schließender Klammer</t>
+  </si>
+  <si>
+    <t>SOA-063</t>
+  </si>
+  <si>
+    <t>Arithmetic Operator should be delimited by spaces</t>
+  </si>
+  <si>
+    <t>Links und Rechts von mathematischen Operatoren Leerzeichen</t>
+  </si>
+  <si>
+    <t>SOA-064</t>
+  </si>
+  <si>
+    <t>Logical Operator should be delimited by spaces</t>
+  </si>
+  <si>
+    <t>Links und Rechts von logischen Operatoren Leerzeichen</t>
+  </si>
+  <si>
+    <t>SOA-065</t>
+  </si>
+  <si>
+    <t>Else Clause should be on a seperate line</t>
+  </si>
+  <si>
+    <t>Else-Anweisung in eigener Zeile beginnen</t>
+  </si>
+  <si>
+    <t>SOA-066</t>
+  </si>
+  <si>
+    <t>Method names should begin with a small letter</t>
+  </si>
+  <si>
+    <t>Methodennamen klein beginnend</t>
+  </si>
+  <si>
+    <t>SOA-067</t>
+  </si>
+  <si>
+    <t>Method names should have at least four characters</t>
+  </si>
+  <si>
+    <t>Methodennamen mindestens 4 Zeichen Lang</t>
+  </si>
+  <si>
+    <t>SOA-068</t>
+  </si>
+  <si>
+    <t>Method/Class/interface names should not exceed 40 characters</t>
+  </si>
+  <si>
+    <t>Methoden, Klassen, Interface-Namen maximal 40 Zeichen</t>
+  </si>
+  <si>
+    <t>SOA-069</t>
+  </si>
+  <si>
+    <t>Data names should be at least four characters long</t>
+  </si>
+  <si>
+    <t>Varuiablennamen mindestens 4 Zeichen lang</t>
+  </si>
+  <si>
+    <t>SOA-070</t>
+  </si>
+  <si>
+    <t>Data names should begin with a capital letter</t>
+  </si>
+  <si>
+    <t>Variablennamen groß beginnen</t>
+  </si>
+  <si>
+    <t>SOA-071</t>
+  </si>
+  <si>
+    <t>Data names should not exceed 36 characters</t>
+  </si>
+  <si>
+    <t>Variablennamen maximal 36 Zeichen lang</t>
+  </si>
+  <si>
+    <t>SOA-072</t>
+  </si>
+  <si>
+    <t>Class names should begin with a capital letter</t>
+  </si>
+  <si>
+    <t>Klassennamen groß beginnen</t>
+  </si>
+  <si>
+    <t>SOA-073</t>
+  </si>
+  <si>
+    <t>Collection names should match class name</t>
+  </si>
+  <si>
+    <t>Dateiname = Klassenname (?)</t>
+  </si>
+  <si>
+    <t>SOA-074</t>
+  </si>
+  <si>
+    <t>Package names should not exceed 8 characters</t>
+  </si>
+  <si>
+    <t>package namen maximal 8 zeichen lang</t>
+  </si>
+  <si>
+    <t>SOA-075</t>
+  </si>
+  <si>
+    <t>Package name should be given in source file</t>
+  </si>
+  <si>
+    <t>package anweisung in Quelldatei angeben</t>
+  </si>
+  <si>
+    <t>SOA-076</t>
+  </si>
+  <si>
+    <t>Multiple classes in a single source not allowed</t>
+  </si>
+  <si>
+    <t>Nur eine Klasse je Quelldatei</t>
+  </si>
+  <si>
+    <t>Structure, Classes</t>
+  </si>
+  <si>
+    <t>SOA-077</t>
+  </si>
+  <si>
+    <t>Objects should never be compared with != null</t>
+  </si>
+  <si>
+    <t>!= null nicht verwenden</t>
+  </si>
+  <si>
+    <t>SOA-078</t>
+  </si>
+  <si>
+    <t>Objects should never be compared with a literal</t>
+  </si>
+  <si>
+    <t>Objekte nicht mit literalen vergleichen</t>
+  </si>
+  <si>
+    <t>SOA-079</t>
+  </si>
+  <si>
+    <t>Classes should never be serializeable</t>
+  </si>
+  <si>
+    <t>Nicht von Serializable erben</t>
+  </si>
+  <si>
+    <t>SOA-080</t>
+  </si>
+  <si>
+    <t>Classes should never be cloneable</t>
+  </si>
+  <si>
+    <t>Nicht von Clonable erben</t>
+  </si>
+  <si>
+    <t>Input Parameters of a Public Method should be checked</t>
+  </si>
+  <si>
+    <t>Eingabeparameter in öffentlichen Methoden überprüfen</t>
   </si>
 </sst>
 </file>
@@ -4267,7 +5022,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Ruleset_Softwarepraktikum-Dortmund" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Ruleset_Softwarepraktikum-Dortmund" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4275,7 +5030,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Ruleset_Solid-Code" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Ruleset_Solid-Code" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Ruleset_SoftAudit" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10748,7 +11507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -13012,4 +13771,1647 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E23" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E32" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E34" t="s">
+        <v>670</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E36" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E37" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E47" t="s">
+        <v>498</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E48" t="s">
+        <v>498</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E49" t="s">
+        <v>858</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E50" t="s">
+        <v>858</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E52" t="s">
+        <v>858</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E59" t="s">
+        <v>498</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E76" t="s">
+        <v>362</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E78" t="s">
+        <v>272</v>
+      </c>
+      <c r="F78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E79" t="s">
+        <v>272</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E81" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/Ruleset-Literature.xlsx
+++ b/files/Ruleset-Literature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elements of Java Style" sheetId="1" r:id="rId1"/>
@@ -1970,9 +1970,6 @@
     <t>Reduktion von Sichtbarkeiten in Unterklassen und Leer-Implementierung von Schnittstellen vermeiden</t>
   </si>
   <si>
-    <t>CQi-005</t>
-  </si>
-  <si>
     <t>Datenkapselaufbruch</t>
   </si>
   <si>
@@ -4004,9 +4001,6 @@
     <t>Portieren</t>
   </si>
   <si>
-    <t>Beom Portieren von Code Zeigeralgorithmen in Referenzen umwandeln</t>
-  </si>
-  <si>
     <t>SOC-019</t>
   </si>
   <si>
@@ -4844,9 +4838,6 @@
     <t>Data names should be at least four characters long</t>
   </si>
   <si>
-    <t>Varuiablennamen mindestens 4 Zeichen lang</t>
-  </si>
-  <si>
     <t>SOA-070</t>
   </si>
   <si>
@@ -4953,6 +4944,15 @@
   </si>
   <si>
     <t>Eingabeparameter in öffentlichen Methoden überprüfen</t>
+  </si>
+  <si>
+    <t>CQI-005</t>
+  </si>
+  <si>
+    <t>Beim Portieren von Code Zeigeralgorithmen in Referenzen umwandeln</t>
+  </si>
+  <si>
+    <t>Variablennamen mindestens 4 Zeichen lang</t>
   </si>
 </sst>
 </file>
@@ -5326,7 +5326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
@@ -7529,7 +7529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -8293,7 +8293,7 @@
         <v>500</v>
       </c>
       <c r="D38" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -8891,7 +8891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9005,16 +9007,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>612</v>
+        <v>1604</v>
       </c>
       <c r="B6" t="s">
         <v>598</v>
       </c>
       <c r="C6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D6" t="s">
         <v>613</v>
-      </c>
-      <c r="D6" t="s">
-        <v>614</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -9025,16 +9027,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7" t="s">
         <v>615</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>616</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>617</v>
-      </c>
-      <c r="D7" t="s">
-        <v>618</v>
       </c>
       <c r="E7" t="s">
         <v>264</v>
@@ -9045,16 +9047,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" t="s">
         <v>619</v>
       </c>
-      <c r="B8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>620</v>
-      </c>
-      <c r="D8" t="s">
-        <v>621</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -9065,16 +9067,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B9" t="s">
         <v>598</v>
       </c>
       <c r="C9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D9" t="s">
         <v>623</v>
-      </c>
-      <c r="D9" t="s">
-        <v>624</v>
       </c>
       <c r="E9" t="s">
         <v>244</v>
@@ -9085,16 +9087,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s">
         <v>598</v>
       </c>
       <c r="C10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" t="s">
         <v>626</v>
-      </c>
-      <c r="D10" t="s">
-        <v>627</v>
       </c>
       <c r="E10" t="s">
         <v>362</v>
@@ -9105,19 +9107,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B11" t="s">
         <v>598</v>
       </c>
       <c r="C11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D11" t="s">
         <v>629</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>630</v>
-      </c>
-      <c r="E11" t="s">
-        <v>631</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -9125,16 +9127,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B12" t="s">
         <v>598</v>
       </c>
       <c r="C12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D12" t="s">
         <v>633</v>
-      </c>
-      <c r="D12" t="s">
-        <v>634</v>
       </c>
       <c r="E12" t="s">
         <v>436</v>
@@ -9145,16 +9147,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B13" t="s">
         <v>635</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>636</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>637</v>
-      </c>
-      <c r="D13" t="s">
-        <v>638</v>
       </c>
       <c r="E13" t="s">
         <v>264</v>
@@ -9165,19 +9167,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B14" t="s">
         <v>639</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>640</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>641</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>642</v>
-      </c>
-      <c r="E14" t="s">
-        <v>643</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -9185,16 +9187,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B15" t="s">
         <v>598</v>
       </c>
       <c r="C15" t="s">
+        <v>644</v>
+      </c>
+      <c r="D15" t="s">
         <v>645</v>
-      </c>
-      <c r="D15" t="s">
-        <v>646</v>
       </c>
       <c r="E15" t="s">
         <v>608</v>
@@ -9205,16 +9207,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
         <v>598</v>
       </c>
       <c r="C16" t="s">
+        <v>647</v>
+      </c>
+      <c r="D16" t="s">
         <v>648</v>
-      </c>
-      <c r="D16" t="s">
-        <v>649</v>
       </c>
       <c r="E16" t="s">
         <v>608</v>
@@ -9225,16 +9227,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B17" t="s">
         <v>598</v>
       </c>
       <c r="C17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D17" t="s">
         <v>651</v>
-      </c>
-      <c r="D17" t="s">
-        <v>652</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -9245,16 +9247,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" t="s">
         <v>653</v>
       </c>
-      <c r="B18" t="s">
-        <v>636</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>654</v>
-      </c>
-      <c r="D18" t="s">
-        <v>655</v>
       </c>
       <c r="E18" t="s">
         <v>538</v>
@@ -9265,19 +9267,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B19" t="s">
+        <v>635</v>
+      </c>
+      <c r="C19" t="s">
         <v>656</v>
       </c>
-      <c r="B19" t="s">
-        <v>636</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>657</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>658</v>
-      </c>
-      <c r="E19" t="s">
-        <v>659</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -9285,16 +9287,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" t="s">
         <v>660</v>
       </c>
-      <c r="B20" t="s">
-        <v>636</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>661</v>
-      </c>
-      <c r="D20" t="s">
-        <v>662</v>
       </c>
       <c r="E20" t="s">
         <v>189</v>
@@ -9305,19 +9307,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B21" t="s">
         <v>598</v>
       </c>
       <c r="C21" t="s">
+        <v>663</v>
+      </c>
+      <c r="D21" t="s">
         <v>664</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>665</v>
-      </c>
-      <c r="E21" t="s">
-        <v>666</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -9325,19 +9327,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B22" t="s">
         <v>598</v>
       </c>
       <c r="C22" t="s">
+        <v>667</v>
+      </c>
+      <c r="D22" t="s">
         <v>668</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>669</v>
-      </c>
-      <c r="E22" t="s">
-        <v>670</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -9345,16 +9347,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B23" t="s">
         <v>598</v>
       </c>
       <c r="C23" t="s">
+        <v>671</v>
+      </c>
+      <c r="D23" t="s">
         <v>672</v>
-      </c>
-      <c r="D23" t="s">
-        <v>673</v>
       </c>
       <c r="E23" t="s">
         <v>244</v>
@@ -9365,16 +9367,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B24" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" t="s">
         <v>674</v>
       </c>
-      <c r="B24" t="s">
-        <v>616</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>675</v>
-      </c>
-      <c r="D24" t="s">
-        <v>676</v>
       </c>
       <c r="E24" t="s">
         <v>498</v>
@@ -9385,19 +9387,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B25" t="s">
+        <v>635</v>
+      </c>
+      <c r="C25" t="s">
         <v>677</v>
       </c>
-      <c r="B25" t="s">
-        <v>636</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>678</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>679</v>
-      </c>
-      <c r="E25" t="s">
-        <v>680</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -9405,16 +9407,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B26" t="s">
         <v>598</v>
       </c>
       <c r="C26" t="s">
+        <v>681</v>
+      </c>
+      <c r="D26" t="s">
         <v>682</v>
-      </c>
-      <c r="D26" t="s">
-        <v>683</v>
       </c>
       <c r="E26" t="s">
         <v>264</v>
@@ -9425,19 +9427,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B27" t="s">
+        <v>615</v>
+      </c>
+      <c r="C27" t="s">
         <v>684</v>
       </c>
-      <c r="B27" t="s">
-        <v>616</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>685</v>
       </c>
-      <c r="D27" t="s">
-        <v>686</v>
-      </c>
       <c r="E27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -9445,16 +9447,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B28" t="s">
+        <v>615</v>
+      </c>
+      <c r="C28" t="s">
         <v>687</v>
       </c>
-      <c r="B28" t="s">
-        <v>616</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>688</v>
-      </c>
-      <c r="D28" t="s">
-        <v>689</v>
       </c>
       <c r="E28" t="s">
         <v>120</v>
@@ -9465,16 +9467,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" t="s">
+        <v>615</v>
+      </c>
+      <c r="C29" t="s">
         <v>690</v>
       </c>
-      <c r="B29" t="s">
-        <v>616</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>691</v>
-      </c>
-      <c r="D29" t="s">
-        <v>692</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
@@ -9485,16 +9487,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" t="s">
         <v>693</v>
       </c>
-      <c r="B30" t="s">
-        <v>636</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>694</v>
-      </c>
-      <c r="D30" t="s">
-        <v>695</v>
       </c>
       <c r="E30" t="s">
         <v>108</v>
@@ -9505,16 +9507,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B31" t="s">
+        <v>635</v>
+      </c>
+      <c r="C31" t="s">
         <v>696</v>
       </c>
-      <c r="B31" t="s">
-        <v>636</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>697</v>
-      </c>
-      <c r="D31" t="s">
-        <v>698</v>
       </c>
       <c r="E31" t="s">
         <v>264</v>
@@ -9525,19 +9527,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B32" t="s">
+        <v>639</v>
+      </c>
+      <c r="C32" t="s">
         <v>699</v>
       </c>
-      <c r="B32" t="s">
-        <v>640</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>700</v>
       </c>
-      <c r="D32" t="s">
-        <v>701</v>
-      </c>
       <c r="E32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -9545,16 +9547,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B33" t="s">
+        <v>639</v>
+      </c>
+      <c r="C33" t="s">
         <v>702</v>
       </c>
-      <c r="B33" t="s">
-        <v>640</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>703</v>
-      </c>
-      <c r="D33" t="s">
-        <v>704</v>
       </c>
       <c r="E33" t="s">
         <v>504</v>
@@ -9565,19 +9567,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B34" t="s">
         <v>598</v>
       </c>
       <c r="C34" t="s">
+        <v>705</v>
+      </c>
+      <c r="D34" t="s">
         <v>706</v>
       </c>
-      <c r="D34" t="s">
-        <v>707</v>
-      </c>
       <c r="E34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -9585,16 +9587,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B35" t="s">
         <v>598</v>
       </c>
       <c r="C35" t="s">
+        <v>708</v>
+      </c>
+      <c r="D35" t="s">
         <v>709</v>
-      </c>
-      <c r="D35" t="s">
-        <v>710</v>
       </c>
       <c r="E35" t="s">
         <v>108</v>
@@ -9605,16 +9607,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B36" t="s">
         <v>598</v>
       </c>
       <c r="C36" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36" t="s">
         <v>712</v>
-      </c>
-      <c r="D36" t="s">
-        <v>713</v>
       </c>
       <c r="E36" t="s">
         <v>608</v>
@@ -9625,19 +9627,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B37" t="s">
         <v>598</v>
       </c>
       <c r="C37" t="s">
+        <v>714</v>
+      </c>
+      <c r="D37" t="s">
         <v>715</v>
       </c>
-      <c r="D37" t="s">
-        <v>716</v>
-      </c>
       <c r="E37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F37" t="s">
         <v>28</v>
@@ -9645,19 +9647,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B38" t="s">
+        <v>635</v>
+      </c>
+      <c r="C38" t="s">
         <v>717</v>
       </c>
-      <c r="B38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>718</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>719</v>
-      </c>
-      <c r="E38" t="s">
-        <v>720</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -9665,16 +9667,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B39" t="s">
         <v>598</v>
       </c>
       <c r="C39" t="s">
+        <v>721</v>
+      </c>
+      <c r="D39" t="s">
         <v>722</v>
-      </c>
-      <c r="D39" t="s">
-        <v>723</v>
       </c>
       <c r="E39" t="s">
         <v>436</v>
@@ -9685,16 +9687,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B40" t="s">
+        <v>635</v>
+      </c>
+      <c r="C40" t="s">
         <v>724</v>
       </c>
-      <c r="B40" t="s">
-        <v>636</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>725</v>
-      </c>
-      <c r="D40" t="s">
-        <v>726</v>
       </c>
       <c r="E40" t="s">
         <v>244</v>
@@ -9705,16 +9707,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B41" t="s">
         <v>598</v>
       </c>
       <c r="C41" t="s">
+        <v>727</v>
+      </c>
+      <c r="D41" t="s">
         <v>728</v>
-      </c>
-      <c r="D41" t="s">
-        <v>729</v>
       </c>
       <c r="E41" t="s">
         <v>244</v>
@@ -9725,19 +9727,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B42" t="s">
         <v>598</v>
       </c>
       <c r="C42" t="s">
+        <v>730</v>
+      </c>
+      <c r="D42" t="s">
         <v>731</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>732</v>
-      </c>
-      <c r="E42" t="s">
-        <v>733</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
@@ -9745,16 +9747,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B43" t="s">
+        <v>635</v>
+      </c>
+      <c r="C43" t="s">
         <v>734</v>
       </c>
-      <c r="B43" t="s">
-        <v>636</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>735</v>
-      </c>
-      <c r="D43" t="s">
-        <v>736</v>
       </c>
       <c r="E43" t="s">
         <v>446</v>
@@ -9765,16 +9767,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B44" t="s">
         <v>598</v>
       </c>
       <c r="C44" t="s">
+        <v>737</v>
+      </c>
+      <c r="D44" t="s">
         <v>738</v>
-      </c>
-      <c r="D44" t="s">
-        <v>739</v>
       </c>
       <c r="E44" t="s">
         <v>414</v>
@@ -9785,19 +9787,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B45" t="s">
         <v>598</v>
       </c>
       <c r="C45" t="s">
+        <v>740</v>
+      </c>
+      <c r="D45" t="s">
         <v>741</v>
       </c>
-      <c r="D45" t="s">
-        <v>742</v>
-      </c>
       <c r="E45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
@@ -9805,16 +9807,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B46" t="s">
+        <v>635</v>
+      </c>
+      <c r="C46" t="s">
         <v>743</v>
       </c>
-      <c r="B46" t="s">
-        <v>636</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>744</v>
-      </c>
-      <c r="D46" t="s">
-        <v>745</v>
       </c>
       <c r="E46" t="s">
         <v>120</v>
@@ -9825,19 +9827,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B47" t="s">
         <v>598</v>
       </c>
       <c r="C47" t="s">
+        <v>746</v>
+      </c>
+      <c r="D47" t="s">
         <v>747</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>748</v>
-      </c>
-      <c r="E47" t="s">
-        <v>749</v>
       </c>
       <c r="F47" t="s">
         <v>28</v>
@@ -9845,19 +9847,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B48" t="s">
         <v>598</v>
       </c>
       <c r="C48" t="s">
+        <v>750</v>
+      </c>
+      <c r="D48" t="s">
         <v>751</v>
       </c>
-      <c r="D48" t="s">
-        <v>752</v>
-      </c>
       <c r="E48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -9865,19 +9867,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B49" t="s">
         <v>598</v>
       </c>
       <c r="C49" t="s">
+        <v>753</v>
+      </c>
+      <c r="D49" t="s">
         <v>754</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>755</v>
-      </c>
-      <c r="E49" t="s">
-        <v>756</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -9885,19 +9887,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B50" t="s">
         <v>598</v>
       </c>
       <c r="C50" t="s">
+        <v>757</v>
+      </c>
+      <c r="D50" t="s">
         <v>758</v>
       </c>
-      <c r="D50" t="s">
-        <v>759</v>
-      </c>
       <c r="E50" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F50" t="s">
         <v>28</v>
@@ -9905,16 +9907,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B51" t="s">
         <v>598</v>
       </c>
       <c r="C51" t="s">
+        <v>760</v>
+      </c>
+      <c r="D51" t="s">
         <v>761</v>
-      </c>
-      <c r="D51" t="s">
-        <v>762</v>
       </c>
       <c r="E51" t="s">
         <v>264</v>
@@ -9925,16 +9927,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B52" t="s">
+        <v>639</v>
+      </c>
+      <c r="C52" t="s">
         <v>763</v>
       </c>
-      <c r="B52" t="s">
-        <v>640</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>764</v>
-      </c>
-      <c r="D52" t="s">
-        <v>765</v>
       </c>
       <c r="E52" t="s">
         <v>362</v>
@@ -9945,16 +9947,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B53" t="s">
         <v>598</v>
       </c>
       <c r="C53" t="s">
+        <v>766</v>
+      </c>
+      <c r="D53" t="s">
         <v>767</v>
-      </c>
-      <c r="D53" t="s">
-        <v>768</v>
       </c>
       <c r="E53" t="s">
         <v>108</v>
@@ -9972,13 +9974,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="114.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
@@ -10006,19 +10010,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B2" t="s">
         <v>769</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>770</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>771</v>
       </c>
-      <c r="D2" t="s">
-        <v>772</v>
-      </c>
       <c r="E2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -10026,19 +10030,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" t="s">
         <v>773</v>
       </c>
-      <c r="B3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>774</v>
       </c>
-      <c r="D3" t="s">
-        <v>775</v>
-      </c>
       <c r="E3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10046,19 +10050,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
         <v>776</v>
       </c>
-      <c r="B4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>777</v>
       </c>
-      <c r="D4" t="s">
-        <v>778</v>
-      </c>
       <c r="E4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -10066,19 +10070,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C5" t="s">
         <v>779</v>
       </c>
-      <c r="B5" t="s">
-        <v>770</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>780</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>781</v>
-      </c>
-      <c r="E5" t="s">
-        <v>782</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -10086,19 +10090,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" t="s">
         <v>783</v>
       </c>
-      <c r="B6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>784</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>785</v>
-      </c>
-      <c r="E6" t="s">
-        <v>786</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10106,19 +10110,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" t="s">
         <v>787</v>
       </c>
-      <c r="B7" t="s">
-        <v>770</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>788</v>
       </c>
-      <c r="D7" t="s">
-        <v>789</v>
-      </c>
       <c r="E7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -10126,19 +10130,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" t="s">
         <v>790</v>
       </c>
-      <c r="B8" t="s">
-        <v>770</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>791</v>
       </c>
-      <c r="D8" t="s">
-        <v>792</v>
-      </c>
       <c r="E8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -10146,19 +10150,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C9" t="s">
         <v>793</v>
       </c>
-      <c r="B9" t="s">
-        <v>770</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>794</v>
       </c>
-      <c r="D9" t="s">
-        <v>795</v>
-      </c>
       <c r="E9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10166,19 +10170,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" t="s">
         <v>796</v>
       </c>
-      <c r="B10" t="s">
-        <v>770</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>797</v>
       </c>
-      <c r="D10" t="s">
-        <v>798</v>
-      </c>
       <c r="E10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -10186,19 +10190,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" t="s">
         <v>799</v>
       </c>
-      <c r="B11" t="s">
-        <v>770</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>800</v>
       </c>
-      <c r="D11" t="s">
-        <v>801</v>
-      </c>
       <c r="E11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -10206,19 +10210,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" t="s">
         <v>802</v>
       </c>
-      <c r="B12" t="s">
-        <v>770</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>803</v>
       </c>
-      <c r="D12" t="s">
-        <v>804</v>
-      </c>
       <c r="E12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -10226,19 +10230,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C13" t="s">
         <v>805</v>
       </c>
-      <c r="B13" t="s">
-        <v>770</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>806</v>
       </c>
-      <c r="D13" t="s">
-        <v>807</v>
-      </c>
       <c r="E13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -10246,36 +10250,36 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C14" t="s">
         <v>808</v>
       </c>
-      <c r="B14" t="s">
-        <v>770</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>809</v>
       </c>
-      <c r="D14" t="s">
-        <v>810</v>
-      </c>
       <c r="E14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" t="s">
         <v>811</v>
       </c>
-      <c r="B15" t="s">
-        <v>770</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>812</v>
       </c>
-      <c r="D15" t="s">
-        <v>813</v>
-      </c>
       <c r="E15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -10283,19 +10287,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C16" t="s">
         <v>814</v>
       </c>
-      <c r="B16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>815</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>816</v>
-      </c>
-      <c r="E16" t="s">
-        <v>817</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -10303,19 +10307,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C17" t="s">
         <v>818</v>
       </c>
-      <c r="B17" t="s">
-        <v>770</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>819</v>
       </c>
-      <c r="D17" t="s">
-        <v>820</v>
-      </c>
       <c r="E17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -10323,19 +10327,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" t="s">
         <v>821</v>
       </c>
-      <c r="B18" t="s">
-        <v>770</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>822</v>
       </c>
-      <c r="D18" t="s">
-        <v>823</v>
-      </c>
       <c r="E18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -10343,19 +10347,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B19" t="s">
+        <v>769</v>
+      </c>
+      <c r="C19" t="s">
         <v>824</v>
       </c>
-      <c r="B19" t="s">
-        <v>770</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>825</v>
       </c>
-      <c r="D19" t="s">
-        <v>826</v>
-      </c>
       <c r="E19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -10363,19 +10367,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C20" t="s">
         <v>827</v>
       </c>
-      <c r="B20" t="s">
-        <v>770</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>828</v>
       </c>
-      <c r="D20" t="s">
-        <v>829</v>
-      </c>
       <c r="E20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -10383,19 +10387,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C21" t="s">
         <v>830</v>
       </c>
-      <c r="B21" t="s">
-        <v>770</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>831</v>
       </c>
-      <c r="D21" t="s">
-        <v>832</v>
-      </c>
       <c r="E21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -10403,19 +10407,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C22" t="s">
         <v>833</v>
       </c>
-      <c r="B22" t="s">
-        <v>770</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>834</v>
       </c>
-      <c r="D22" t="s">
-        <v>835</v>
-      </c>
       <c r="E22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -10423,16 +10427,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B23" t="s">
         <v>836</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>837</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>838</v>
-      </c>
-      <c r="D23" t="s">
-        <v>839</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -10443,19 +10447,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B24" t="s">
+        <v>836</v>
+      </c>
+      <c r="C24" t="s">
         <v>840</v>
       </c>
-      <c r="B24" t="s">
-        <v>837</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>841</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>842</v>
-      </c>
-      <c r="E24" t="s">
-        <v>843</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -10463,16 +10467,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B25" t="s">
+        <v>836</v>
+      </c>
+      <c r="C25" t="s">
         <v>844</v>
       </c>
-      <c r="B25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>845</v>
-      </c>
-      <c r="D25" t="s">
-        <v>846</v>
       </c>
       <c r="E25" t="s">
         <v>436</v>
@@ -10483,19 +10487,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B26" t="s">
+        <v>836</v>
+      </c>
+      <c r="C26" t="s">
         <v>847</v>
       </c>
-      <c r="B26" t="s">
-        <v>837</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>848</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>849</v>
-      </c>
-      <c r="E26" t="s">
-        <v>850</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -10503,19 +10507,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B27" t="s">
+        <v>836</v>
+      </c>
+      <c r="C27" t="s">
         <v>851</v>
       </c>
-      <c r="B27" t="s">
-        <v>837</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>852</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>853</v>
-      </c>
-      <c r="E27" t="s">
-        <v>854</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -10523,19 +10527,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B28" t="s">
+        <v>836</v>
+      </c>
+      <c r="C28" t="s">
         <v>855</v>
       </c>
-      <c r="B28" t="s">
-        <v>837</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>856</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>857</v>
-      </c>
-      <c r="E28" t="s">
-        <v>858</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -10543,16 +10547,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C29" t="s">
         <v>859</v>
       </c>
-      <c r="B29" t="s">
-        <v>837</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>860</v>
-      </c>
-      <c r="D29" t="s">
-        <v>861</v>
       </c>
       <c r="E29" t="s">
         <v>546</v>
@@ -10563,19 +10567,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B30" t="s">
+        <v>836</v>
+      </c>
+      <c r="C30" t="s">
         <v>862</v>
       </c>
-      <c r="B30" t="s">
-        <v>837</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>863</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>864</v>
-      </c>
-      <c r="E30" t="s">
-        <v>865</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -10583,19 +10587,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B31" t="s">
+        <v>836</v>
+      </c>
+      <c r="C31" t="s">
         <v>866</v>
       </c>
-      <c r="B31" t="s">
-        <v>837</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>867</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>868</v>
-      </c>
-      <c r="E31" t="s">
-        <v>869</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -10603,36 +10607,36 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B32" t="s">
+        <v>836</v>
+      </c>
+      <c r="C32" t="s">
         <v>870</v>
       </c>
-      <c r="B32" t="s">
-        <v>837</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>871</v>
-      </c>
-      <c r="D32" t="s">
-        <v>872</v>
       </c>
       <c r="E32" t="s">
         <v>498</v>
       </c>
       <c r="F32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B33" t="s">
+        <v>836</v>
+      </c>
+      <c r="C33" t="s">
         <v>874</v>
       </c>
-      <c r="B33" t="s">
-        <v>837</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>875</v>
-      </c>
-      <c r="D33" t="s">
-        <v>876</v>
       </c>
       <c r="E33" t="s">
         <v>362</v>
@@ -10643,16 +10647,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B34" t="s">
+        <v>836</v>
+      </c>
+      <c r="C34" t="s">
         <v>877</v>
       </c>
-      <c r="B34" t="s">
-        <v>837</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>878</v>
-      </c>
-      <c r="D34" t="s">
-        <v>879</v>
       </c>
       <c r="E34" t="s">
         <v>291</v>
@@ -10663,16 +10667,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B35" t="s">
+        <v>836</v>
+      </c>
+      <c r="C35" t="s">
         <v>880</v>
       </c>
-      <c r="B35" t="s">
-        <v>837</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>881</v>
-      </c>
-      <c r="D35" t="s">
-        <v>882</v>
       </c>
       <c r="E35" t="s">
         <v>291</v>
@@ -10683,19 +10687,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B36" t="s">
+        <v>836</v>
+      </c>
+      <c r="C36" t="s">
         <v>883</v>
       </c>
-      <c r="B36" t="s">
-        <v>837</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>884</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>885</v>
-      </c>
-      <c r="E36" t="s">
-        <v>886</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -10703,16 +10707,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B37" t="s">
+        <v>836</v>
+      </c>
+      <c r="C37" t="s">
         <v>887</v>
       </c>
-      <c r="B37" t="s">
-        <v>837</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>888</v>
-      </c>
-      <c r="D37" t="s">
-        <v>889</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -10723,16 +10727,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B38" t="s">
         <v>890</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>891</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>892</v>
-      </c>
-      <c r="D38" t="s">
-        <v>893</v>
       </c>
       <c r="E38" t="s">
         <v>108</v>
@@ -10743,16 +10747,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B39" t="s">
+        <v>890</v>
+      </c>
+      <c r="C39" t="s">
         <v>894</v>
       </c>
-      <c r="B39" t="s">
-        <v>891</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>895</v>
-      </c>
-      <c r="D39" t="s">
-        <v>896</v>
       </c>
       <c r="E39" t="s">
         <v>108</v>
@@ -10763,16 +10767,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B40" t="s">
+        <v>890</v>
+      </c>
+      <c r="C40" t="s">
         <v>897</v>
       </c>
-      <c r="B40" t="s">
-        <v>891</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>898</v>
-      </c>
-      <c r="D40" t="s">
-        <v>899</v>
       </c>
       <c r="E40" t="s">
         <v>530</v>
@@ -10783,16 +10787,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B41" t="s">
+        <v>890</v>
+      </c>
+      <c r="C41" t="s">
         <v>900</v>
       </c>
-      <c r="B41" t="s">
-        <v>891</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>901</v>
-      </c>
-      <c r="D41" t="s">
-        <v>902</v>
       </c>
       <c r="E41" t="s">
         <v>498</v>
@@ -10803,19 +10807,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B42" t="s">
+        <v>890</v>
+      </c>
+      <c r="C42" t="s">
         <v>903</v>
       </c>
-      <c r="B42" t="s">
-        <v>891</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>904</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>905</v>
-      </c>
-      <c r="E42" t="s">
-        <v>906</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
@@ -10823,16 +10827,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B43" t="s">
+        <v>890</v>
+      </c>
+      <c r="C43" t="s">
         <v>907</v>
       </c>
-      <c r="B43" t="s">
-        <v>891</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>908</v>
-      </c>
-      <c r="D43" t="s">
-        <v>909</v>
       </c>
       <c r="E43" t="s">
         <v>291</v>
@@ -10843,19 +10847,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B44" t="s">
+        <v>890</v>
+      </c>
+      <c r="C44" t="s">
         <v>910</v>
       </c>
-      <c r="B44" t="s">
-        <v>891</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>911</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>912</v>
-      </c>
-      <c r="E44" t="s">
-        <v>913</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
@@ -10863,19 +10867,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B45" t="s">
+        <v>890</v>
+      </c>
+      <c r="C45" t="s">
         <v>914</v>
       </c>
-      <c r="B45" t="s">
-        <v>891</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>915</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>916</v>
-      </c>
-      <c r="E45" t="s">
-        <v>917</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
@@ -10883,19 +10887,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B46" t="s">
+        <v>890</v>
+      </c>
+      <c r="C46" t="s">
         <v>918</v>
       </c>
-      <c r="B46" t="s">
-        <v>891</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>919</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>920</v>
-      </c>
-      <c r="E46" t="s">
-        <v>921</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -10903,19 +10907,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B47" t="s">
+        <v>890</v>
+      </c>
+      <c r="C47" t="s">
         <v>922</v>
       </c>
-      <c r="B47" t="s">
-        <v>891</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>923</v>
       </c>
-      <c r="D47" t="s">
-        <v>924</v>
-      </c>
       <c r="E47" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F47" t="s">
         <v>28</v>
@@ -10923,16 +10927,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B48" t="s">
+        <v>890</v>
+      </c>
+      <c r="C48" t="s">
         <v>925</v>
       </c>
-      <c r="B48" t="s">
-        <v>891</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>926</v>
-      </c>
-      <c r="D48" t="s">
-        <v>927</v>
       </c>
       <c r="E48" t="s">
         <v>546</v>
@@ -10943,19 +10947,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>890</v>
+      </c>
+      <c r="C49" t="s">
         <v>928</v>
       </c>
-      <c r="B49" t="s">
-        <v>891</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>929</v>
       </c>
-      <c r="D49" t="s">
-        <v>930</v>
-      </c>
       <c r="E49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -10963,19 +10967,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B50" t="s">
+        <v>890</v>
+      </c>
+      <c r="C50" t="s">
         <v>931</v>
       </c>
-      <c r="B50" t="s">
-        <v>891</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>932</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>933</v>
-      </c>
-      <c r="E50" t="s">
-        <v>934</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -10983,16 +10987,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B51" t="s">
         <v>935</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>936</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>937</v>
-      </c>
-      <c r="D51" t="s">
-        <v>938</v>
       </c>
       <c r="E51" t="s">
         <v>39</v>
@@ -11003,16 +11007,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B52" t="s">
+        <v>935</v>
+      </c>
+      <c r="C52" t="s">
         <v>939</v>
       </c>
-      <c r="B52" t="s">
-        <v>936</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>940</v>
-      </c>
-      <c r="D52" t="s">
-        <v>941</v>
       </c>
       <c r="E52" t="s">
         <v>264</v>
@@ -11023,16 +11027,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B53" t="s">
+        <v>935</v>
+      </c>
+      <c r="C53" t="s">
         <v>942</v>
       </c>
-      <c r="B53" t="s">
-        <v>936</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>943</v>
-      </c>
-      <c r="D53" t="s">
-        <v>944</v>
       </c>
       <c r="E53" t="s">
         <v>291</v>
@@ -11043,19 +11047,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B54" t="s">
+        <v>935</v>
+      </c>
+      <c r="C54" t="s">
         <v>945</v>
       </c>
-      <c r="B54" t="s">
-        <v>936</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>946</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>947</v>
-      </c>
-      <c r="E54" t="s">
-        <v>948</v>
       </c>
       <c r="F54" t="s">
         <v>28</v>
@@ -11063,19 +11067,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B55" t="s">
+        <v>935</v>
+      </c>
+      <c r="C55" t="s">
         <v>949</v>
       </c>
-      <c r="B55" t="s">
-        <v>936</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>950</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>951</v>
-      </c>
-      <c r="E55" t="s">
-        <v>952</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
@@ -11083,19 +11087,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B56" t="s">
+        <v>935</v>
+      </c>
+      <c r="C56" t="s">
         <v>953</v>
       </c>
-      <c r="B56" t="s">
-        <v>936</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>954</v>
       </c>
-      <c r="D56" t="s">
-        <v>955</v>
-      </c>
       <c r="E56" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
@@ -11103,16 +11107,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B57" t="s">
+        <v>935</v>
+      </c>
+      <c r="C57" t="s">
         <v>956</v>
       </c>
-      <c r="B57" t="s">
-        <v>936</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>957</v>
-      </c>
-      <c r="D57" t="s">
-        <v>958</v>
       </c>
       <c r="E57" t="s">
         <v>268</v>
@@ -11123,16 +11127,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B58" t="s">
+        <v>935</v>
+      </c>
+      <c r="C58" t="s">
         <v>959</v>
       </c>
-      <c r="B58" t="s">
-        <v>936</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>960</v>
-      </c>
-      <c r="D58" t="s">
-        <v>961</v>
       </c>
       <c r="E58" t="s">
         <v>268</v>
@@ -11143,16 +11147,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B59" t="s">
+        <v>935</v>
+      </c>
+      <c r="C59" t="s">
         <v>962</v>
       </c>
-      <c r="B59" t="s">
-        <v>936</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>963</v>
-      </c>
-      <c r="D59" t="s">
-        <v>964</v>
       </c>
       <c r="E59" t="s">
         <v>272</v>
@@ -11163,19 +11167,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B60" t="s">
+        <v>935</v>
+      </c>
+      <c r="C60" t="s">
         <v>965</v>
       </c>
-      <c r="B60" t="s">
-        <v>936</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>966</v>
       </c>
-      <c r="D60" t="s">
-        <v>967</v>
-      </c>
       <c r="E60" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
@@ -11183,16 +11187,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B61" t="s">
+        <v>935</v>
+      </c>
+      <c r="C61" t="s">
         <v>968</v>
       </c>
-      <c r="B61" t="s">
-        <v>936</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>969</v>
-      </c>
-      <c r="D61" t="s">
-        <v>970</v>
       </c>
       <c r="E61" t="s">
         <v>236</v>
@@ -11203,16 +11207,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B62" t="s">
+        <v>935</v>
+      </c>
+      <c r="C62" t="s">
         <v>971</v>
       </c>
-      <c r="B62" t="s">
-        <v>936</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>972</v>
-      </c>
-      <c r="D62" t="s">
-        <v>973</v>
       </c>
       <c r="E62" t="s">
         <v>244</v>
@@ -11223,16 +11227,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B63" t="s">
+        <v>935</v>
+      </c>
+      <c r="C63" t="s">
         <v>974</v>
       </c>
-      <c r="B63" t="s">
-        <v>936</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>975</v>
-      </c>
-      <c r="D63" t="s">
-        <v>976</v>
       </c>
       <c r="E63" t="s">
         <v>120</v>
@@ -11243,19 +11247,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B64" t="s">
+        <v>935</v>
+      </c>
+      <c r="C64" t="s">
         <v>977</v>
       </c>
-      <c r="B64" t="s">
-        <v>936</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>978</v>
       </c>
-      <c r="D64" t="s">
-        <v>979</v>
-      </c>
       <c r="E64" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F64" t="s">
         <v>28</v>
@@ -11263,19 +11267,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B65" t="s">
+        <v>935</v>
+      </c>
+      <c r="C65" t="s">
         <v>980</v>
       </c>
-      <c r="B65" t="s">
-        <v>936</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>981</v>
       </c>
-      <c r="D65" t="s">
-        <v>982</v>
-      </c>
       <c r="E65" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F65" t="s">
         <v>28</v>
@@ -11283,16 +11287,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B66" t="s">
+        <v>935</v>
+      </c>
+      <c r="C66" t="s">
         <v>983</v>
       </c>
-      <c r="B66" t="s">
-        <v>936</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>984</v>
-      </c>
-      <c r="D66" t="s">
-        <v>985</v>
       </c>
       <c r="E66" t="s">
         <v>264</v>
@@ -11303,16 +11307,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B67" t="s">
         <v>986</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>987</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>988</v>
-      </c>
-      <c r="D67" t="s">
-        <v>989</v>
       </c>
       <c r="E67" t="s">
         <v>325</v>
@@ -11323,16 +11327,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B68" t="s">
+        <v>986</v>
+      </c>
+      <c r="C68" t="s">
         <v>990</v>
       </c>
-      <c r="B68" t="s">
-        <v>987</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>991</v>
-      </c>
-      <c r="D68" t="s">
-        <v>992</v>
       </c>
       <c r="E68" t="s">
         <v>325</v>
@@ -11343,36 +11347,36 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B69" t="s">
+        <v>986</v>
+      </c>
+      <c r="C69" t="s">
         <v>993</v>
       </c>
-      <c r="B69" t="s">
-        <v>987</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>994</v>
-      </c>
-      <c r="D69" t="s">
-        <v>995</v>
       </c>
       <c r="E69" t="s">
         <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B70" t="s">
+        <v>986</v>
+      </c>
+      <c r="C70" t="s">
         <v>996</v>
       </c>
-      <c r="B70" t="s">
-        <v>987</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>997</v>
-      </c>
-      <c r="D70" t="s">
-        <v>998</v>
       </c>
       <c r="E70" t="s">
         <v>272</v>
@@ -11383,16 +11387,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B71" t="s">
+        <v>986</v>
+      </c>
+      <c r="C71" t="s">
         <v>999</v>
       </c>
-      <c r="B71" t="s">
-        <v>987</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>1000</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1001</v>
       </c>
       <c r="E71" t="s">
         <v>272</v>
@@ -11403,16 +11407,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>986</v>
+      </c>
+      <c r="C72" t="s">
         <v>1002</v>
       </c>
-      <c r="B72" t="s">
-        <v>987</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>1003</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1004</v>
       </c>
       <c r="E72" t="s">
         <v>236</v>
@@ -11423,16 +11427,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B73" t="s">
+        <v>986</v>
+      </c>
+      <c r="C73" t="s">
         <v>1005</v>
       </c>
-      <c r="B73" t="s">
-        <v>987</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>1006</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1007</v>
       </c>
       <c r="E73" t="s">
         <v>264</v>
@@ -11443,36 +11447,36 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B74" t="s">
+        <v>986</v>
+      </c>
+      <c r="C74" t="s">
         <v>1008</v>
       </c>
-      <c r="B74" t="s">
-        <v>987</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>1009</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>1010</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B75" t="s">
+        <v>986</v>
+      </c>
+      <c r="C75" t="s">
         <v>1012</v>
       </c>
-      <c r="B75" t="s">
-        <v>987</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>1013</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>1014</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1015</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -11480,16 +11484,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B76" t="s">
+        <v>986</v>
+      </c>
+      <c r="C76" t="s">
         <v>1016</v>
       </c>
-      <c r="B76" t="s">
-        <v>987</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>1017</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1018</v>
       </c>
       <c r="E76" t="s">
         <v>108</v>
@@ -11543,16 +11547,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D2" t="s">
         <v>1020</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1021</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -11563,16 +11567,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D3" t="s">
         <v>1023</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1024</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -11583,16 +11587,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B4" t="s">
         <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E4" t="s">
         <v>264</v>
@@ -11603,16 +11607,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B5" t="s">
         <v>264</v>
       </c>
       <c r="C5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D5" t="s">
         <v>1028</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1029</v>
       </c>
       <c r="E5" t="s">
         <v>264</v>
@@ -11623,16 +11627,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B6" t="s">
         <v>264</v>
       </c>
       <c r="C6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D6" t="s">
         <v>1031</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1032</v>
       </c>
       <c r="E6" t="s">
         <v>264</v>
@@ -11643,19 +11647,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D7" t="s">
         <v>1033</v>
       </c>
-      <c r="B7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1034</v>
-      </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -11663,19 +11667,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" t="s">
         <v>1035</v>
       </c>
-      <c r="B8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1036</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1037</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1038</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -11683,19 +11687,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C9" t="s">
         <v>1039</v>
       </c>
-      <c r="B9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1040</v>
       </c>
-      <c r="D9" t="s">
-        <v>1041</v>
-      </c>
       <c r="E9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11703,16 +11707,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B10" t="s">
         <v>1042</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1043</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1044</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1045</v>
       </c>
       <c r="E10" t="s">
         <v>498</v>
@@ -11723,16 +11727,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C11" t="s">
         <v>1046</v>
       </c>
-      <c r="B11" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1047</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1048</v>
       </c>
       <c r="E11" t="s">
         <v>268</v>
@@ -11743,16 +11747,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C12" t="s">
         <v>1049</v>
       </c>
-      <c r="B12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1050</v>
-      </c>
       <c r="D12" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E12" t="s">
         <v>108</v>
@@ -11770,8 +11774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11807,19 +11811,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B2" t="s">
         <v>1053</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1054</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1055</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1056</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1057</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -11827,16 +11831,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C3" t="s">
         <v>1058</v>
       </c>
-      <c r="B3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1059</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1060</v>
       </c>
       <c r="E3" t="s">
         <v>362</v>
@@ -11847,16 +11851,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C4" t="s">
         <v>1061</v>
       </c>
-      <c r="B4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1062</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1063</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -11867,16 +11871,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C5" t="s">
         <v>1064</v>
       </c>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1065</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1066</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -11887,19 +11891,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" t="s">
         <v>1067</v>
       </c>
-      <c r="B6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1068</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1069</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1070</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -11907,16 +11911,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B7" t="s">
         <v>1071</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1072</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1073</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1074</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -11927,16 +11931,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C8" t="s">
         <v>1075</v>
       </c>
-      <c r="B8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1076</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1077</v>
       </c>
       <c r="E8" t="s">
         <v>120</v>
@@ -11947,16 +11951,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C9" t="s">
         <v>1078</v>
       </c>
-      <c r="B9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1079</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1080</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -11967,19 +11971,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C10" t="s">
         <v>1081</v>
       </c>
-      <c r="B10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1082</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1083</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1084</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -11987,19 +11991,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C11" t="s">
         <v>1085</v>
       </c>
-      <c r="B11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1086</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1087</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1088</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -12007,19 +12011,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C12" t="s">
         <v>1089</v>
       </c>
-      <c r="B12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1090</v>
       </c>
-      <c r="D12" t="s">
-        <v>1091</v>
-      </c>
       <c r="E12" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -12027,16 +12031,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C13" t="s">
         <v>1092</v>
       </c>
-      <c r="B13" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1093</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1094</v>
       </c>
       <c r="E13" t="s">
         <v>538</v>
@@ -12047,19 +12051,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C14" t="s">
         <v>1095</v>
       </c>
-      <c r="B14" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1096</v>
       </c>
-      <c r="D14" t="s">
-        <v>1097</v>
-      </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -12067,19 +12071,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C15" t="s">
         <v>1098</v>
       </c>
-      <c r="B15" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1099</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1101</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -12087,19 +12091,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D16" t="s">
         <v>1103</v>
       </c>
-      <c r="D16" t="s">
-        <v>1104</v>
-      </c>
       <c r="E16" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -12107,16 +12111,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D17" t="s">
         <v>1106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1107</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -12127,16 +12131,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D18" t="s">
         <v>1109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1110</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -12147,16 +12151,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D19" t="s">
         <v>1112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1113</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -12167,16 +12171,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D20" t="s">
         <v>1115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1116</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -12187,16 +12191,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D21" t="s">
         <v>1118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1119</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -12207,16 +12211,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D22" t="s">
         <v>1121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1122</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -12227,16 +12231,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B23" t="s">
         <v>1123</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1124</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>1125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1126</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -12247,19 +12251,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D24" t="s">
         <v>1128</v>
       </c>
-      <c r="D24" t="s">
-        <v>1129</v>
-      </c>
       <c r="E24" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -12267,16 +12271,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D25" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -12287,16 +12291,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D26" t="s">
         <v>1133</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1134</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -12307,19 +12311,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D27" t="s">
         <v>1136</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>1137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1138</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -12327,19 +12331,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D28" t="s">
         <v>1140</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>1141</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1142</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -12347,16 +12351,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D29" t="s">
         <v>1144</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1145</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -12367,19 +12371,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B30" t="s">
         <v>1146</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>1147</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>1148</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>1149</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1150</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -12387,19 +12391,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D31" t="s">
         <v>1152</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>1153</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1154</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -12407,19 +12411,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D32" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -12427,7 +12431,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -12436,7 +12440,7 @@
         <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E33" t="s">
         <v>152</v>
@@ -12447,16 +12451,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D34" t="s">
         <v>1160</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1161</v>
       </c>
       <c r="E34" t="s">
         <v>27</v>
@@ -12467,19 +12471,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D35" t="s">
         <v>1163</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>1164</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1165</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -12487,16 +12491,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -12507,16 +12511,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D37" t="s">
         <v>1169</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1170</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -12527,16 +12531,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D38" t="s">
         <v>1172</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1173</v>
       </c>
       <c r="E38" t="s">
         <v>71</v>
@@ -12547,16 +12551,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D39" t="s">
         <v>1175</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1176</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
@@ -12567,16 +12571,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D40" t="s">
         <v>1178</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1179</v>
       </c>
       <c r="E40" t="s">
         <v>115</v>
@@ -12587,16 +12591,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D41" t="s">
         <v>1181</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1182</v>
       </c>
       <c r="E41" t="s">
         <v>95</v>
@@ -12607,16 +12611,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D42" t="s">
         <v>1184</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1185</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
@@ -12627,16 +12631,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
       <c r="C43" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D43" t="s">
         <v>1187</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1188</v>
       </c>
       <c r="E43" t="s">
         <v>95</v>
@@ -12647,16 +12651,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D44" t="s">
         <v>1190</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1191</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
@@ -12667,16 +12671,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D45" t="s">
         <v>1193</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1194</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
@@ -12687,19 +12691,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B46" t="s">
         <v>229</v>
       </c>
       <c r="C46" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D46" t="s">
         <v>1196</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>1197</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1198</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -12707,19 +12711,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B47" t="s">
         <v>229</v>
       </c>
       <c r="C47" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D47" t="s">
         <v>1200</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>1201</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1202</v>
       </c>
       <c r="F47" t="s">
         <v>28</v>
@@ -12727,16 +12731,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B48" t="s">
         <v>229</v>
       </c>
       <c r="C48" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D48" t="s">
         <v>1204</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1205</v>
       </c>
       <c r="E48" t="s">
         <v>407</v>
@@ -12747,16 +12751,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B49" t="s">
         <v>229</v>
       </c>
       <c r="C49" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D49" t="s">
         <v>1207</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1208</v>
       </c>
       <c r="E49" t="s">
         <v>608</v>
@@ -12767,16 +12771,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B50" t="s">
         <v>1209</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>1210</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1211</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1212</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -12787,16 +12791,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C51" t="s">
         <v>1213</v>
       </c>
-      <c r="B51" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1214</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1215</v>
       </c>
       <c r="E51" t="s">
         <v>120</v>
@@ -12807,16 +12811,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C52" t="s">
         <v>1216</v>
       </c>
-      <c r="B52" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1217</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1218</v>
       </c>
       <c r="E52" t="s">
         <v>120</v>
@@ -12827,16 +12831,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C53" t="s">
         <v>1219</v>
       </c>
-      <c r="B53" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1220</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1221</v>
       </c>
       <c r="E53" t="s">
         <v>120</v>
@@ -12847,16 +12851,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C54" t="s">
         <v>1222</v>
       </c>
-      <c r="B54" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1223</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1224</v>
       </c>
       <c r="E54" t="s">
         <v>120</v>
@@ -12867,16 +12871,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C55" t="s">
         <v>1225</v>
       </c>
-      <c r="B55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>1226</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1227</v>
       </c>
       <c r="E55" t="s">
         <v>120</v>
@@ -12887,16 +12891,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C56" t="s">
         <v>1228</v>
       </c>
-      <c r="B56" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>1229</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1230</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
@@ -12907,22 +12911,22 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C57" t="s">
         <v>1231</v>
       </c>
-      <c r="B57" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>1232</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1233</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>
@@ -12934,8 +12938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12970,16 +12974,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C2" t="s">
         <v>1237</v>
       </c>
-      <c r="B2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1239</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -12990,16 +12994,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C3" t="s">
         <v>1240</v>
       </c>
-      <c r="B3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1241</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1242</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -13010,19 +13014,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C4" t="s">
         <v>1243</v>
       </c>
-      <c r="B4" t="s">
-        <v>837</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1244</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1245</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1246</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -13030,16 +13034,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C5" t="s">
         <v>1247</v>
       </c>
-      <c r="B5" t="s">
-        <v>837</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1248</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1249</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -13050,16 +13054,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C6" t="s">
         <v>1250</v>
       </c>
-      <c r="B6" t="s">
-        <v>837</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1251</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1252</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -13070,16 +13074,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C7" t="s">
         <v>1253</v>
       </c>
-      <c r="B7" t="s">
-        <v>837</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1255</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -13090,16 +13094,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C8" t="s">
         <v>377</v>
       </c>
       <c r="D8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E8" t="s">
         <v>120</v>
@@ -13110,16 +13114,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>836</v>
+      </c>
+      <c r="C9" t="s">
         <v>1258</v>
       </c>
-      <c r="B9" t="s">
-        <v>837</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1259</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1260</v>
       </c>
       <c r="E9" t="s">
         <v>120</v>
@@ -13130,19 +13134,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C10" t="s">
         <v>1261</v>
       </c>
-      <c r="B10" t="s">
-        <v>837</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1262</v>
       </c>
-      <c r="D10" t="s">
-        <v>1263</v>
-      </c>
       <c r="E10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -13150,19 +13154,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>836</v>
+      </c>
+      <c r="C11" t="s">
         <v>1264</v>
       </c>
-      <c r="B11" t="s">
-        <v>837</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1265</v>
       </c>
-      <c r="D11" t="s">
-        <v>1266</v>
-      </c>
       <c r="E11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -13170,16 +13174,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" t="s">
         <v>1267</v>
       </c>
-      <c r="B12" t="s">
-        <v>837</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1268</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1269</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -13190,16 +13194,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B13" t="s">
+        <v>836</v>
+      </c>
+      <c r="C13" t="s">
         <v>1270</v>
       </c>
-      <c r="B13" t="s">
-        <v>837</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1271</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1272</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -13210,16 +13214,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>836</v>
+      </c>
+      <c r="C14" t="s">
         <v>1273</v>
       </c>
-      <c r="B14" t="s">
-        <v>837</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1274</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1275</v>
       </c>
       <c r="E14" t="s">
         <v>264</v>
@@ -13230,16 +13234,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>836</v>
+      </c>
+      <c r="C15" t="s">
         <v>1276</v>
       </c>
-      <c r="B15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1277</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1278</v>
       </c>
       <c r="E15" t="s">
         <v>108</v>
@@ -13250,19 +13254,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>836</v>
+      </c>
+      <c r="C16" t="s">
         <v>1279</v>
       </c>
-      <c r="B16" t="s">
-        <v>837</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>1280</v>
       </c>
-      <c r="D16" t="s">
-        <v>1281</v>
-      </c>
       <c r="E16" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -13270,16 +13274,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B17" t="s">
+        <v>836</v>
+      </c>
+      <c r="C17" t="s">
         <v>1282</v>
       </c>
-      <c r="B17" t="s">
-        <v>837</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>1283</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1284</v>
       </c>
       <c r="E17" t="s">
         <v>264</v>
@@ -13290,16 +13294,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B18" t="s">
+        <v>836</v>
+      </c>
+      <c r="C18" t="s">
         <v>1285</v>
       </c>
-      <c r="B18" t="s">
-        <v>837</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1286</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1287</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
@@ -13310,16 +13314,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" t="s">
         <v>1288</v>
       </c>
-      <c r="B19" t="s">
-        <v>837</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1289</v>
-      </c>
       <c r="D19" t="s">
-        <v>1290</v>
+        <v>1605</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -13330,19 +13334,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D20" t="s">
         <v>1291</v>
       </c>
-      <c r="B20" t="s">
-        <v>837</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1293</v>
-      </c>
       <c r="E20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -13350,16 +13354,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B21" t="s">
+        <v>836</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D21" t="s">
         <v>1294</v>
-      </c>
-      <c r="B21" t="s">
-        <v>837</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1296</v>
       </c>
       <c r="E21" t="s">
         <v>498</v>
@@ -13370,16 +13374,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B22" t="s">
+        <v>836</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D22" t="s">
         <v>1297</v>
-      </c>
-      <c r="B22" t="s">
-        <v>837</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1299</v>
       </c>
       <c r="E22" t="s">
         <v>268</v>
@@ -13390,16 +13394,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>836</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D23" t="s">
         <v>1300</v>
-      </c>
-      <c r="B23" t="s">
-        <v>837</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1302</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -13410,16 +13414,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>836</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D24" t="s">
         <v>1303</v>
-      </c>
-      <c r="B24" t="s">
-        <v>837</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1305</v>
       </c>
       <c r="E24" t="s">
         <v>291</v>
@@ -13430,16 +13434,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>836</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D25" t="s">
         <v>1306</v>
-      </c>
-      <c r="B25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1308</v>
       </c>
       <c r="E25" t="s">
         <v>236</v>
@@ -13450,16 +13454,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B26" t="s">
+        <v>836</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D26" t="s">
         <v>1309</v>
-      </c>
-      <c r="B26" t="s">
-        <v>837</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1311</v>
       </c>
       <c r="E26" t="s">
         <v>264</v>
@@ -13470,16 +13474,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>836</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D27" t="s">
         <v>1312</v>
-      </c>
-      <c r="B27" t="s">
-        <v>837</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1314</v>
       </c>
       <c r="E27" t="s">
         <v>236</v>
@@ -13490,16 +13494,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C28" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D28" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E28" t="s">
         <v>236</v>
@@ -13510,16 +13514,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D29" t="s">
         <v>1317</v>
-      </c>
-      <c r="B29" t="s">
-        <v>837</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1319</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -13530,16 +13534,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>836</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D30" t="s">
         <v>1320</v>
-      </c>
-      <c r="B30" t="s">
-        <v>837</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1322</v>
       </c>
       <c r="E30" t="s">
         <v>268</v>
@@ -13550,16 +13554,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B31" t="s">
+        <v>836</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D31" t="s">
         <v>1323</v>
-      </c>
-      <c r="B31" t="s">
-        <v>837</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1325</v>
       </c>
       <c r="E31" t="s">
         <v>108</v>
@@ -13570,16 +13574,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>836</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D32" t="s">
         <v>1326</v>
-      </c>
-      <c r="B32" t="s">
-        <v>837</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1328</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -13590,16 +13594,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B33" t="s">
+        <v>836</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D33" t="s">
         <v>1329</v>
-      </c>
-      <c r="B33" t="s">
-        <v>837</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1331</v>
       </c>
       <c r="E33" t="s">
         <v>268</v>
@@ -13610,16 +13614,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>836</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D34" t="s">
         <v>1332</v>
-      </c>
-      <c r="B34" t="s">
-        <v>837</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1334</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
@@ -13630,19 +13634,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B35" t="s">
+        <v>836</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D35" t="s">
         <v>1335</v>
       </c>
-      <c r="B35" t="s">
-        <v>837</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>1336</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1338</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -13650,16 +13654,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B36" t="s">
+        <v>836</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D36" t="s">
         <v>1339</v>
-      </c>
-      <c r="B36" t="s">
-        <v>837</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1341</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -13670,16 +13674,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B37" t="s">
+        <v>836</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D37" t="s">
         <v>1342</v>
-      </c>
-      <c r="B37" t="s">
-        <v>837</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1344</v>
       </c>
       <c r="E37" t="s">
         <v>236</v>
@@ -13690,16 +13694,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>836</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D38" t="s">
         <v>1345</v>
-      </c>
-      <c r="B38" t="s">
-        <v>837</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1347</v>
       </c>
       <c r="E38" t="s">
         <v>268</v>
@@ -13710,19 +13714,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>836</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D39" t="s">
         <v>1348</v>
       </c>
-      <c r="B39" t="s">
-        <v>837</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>1349</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1351</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
@@ -13730,16 +13734,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B40" t="s">
+        <v>836</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D40" t="s">
         <v>1352</v>
-      </c>
-      <c r="B40" t="s">
-        <v>837</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1354</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -13750,16 +13754,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B41" t="s">
+        <v>836</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D41" t="s">
         <v>1355</v>
-      </c>
-      <c r="B41" t="s">
-        <v>837</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1357</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -13777,8 +13781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13813,19 +13817,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C2" t="s">
         <v>1360</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1361</v>
       </c>
-      <c r="C2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1363</v>
-      </c>
       <c r="E2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -13833,19 +13837,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D3" t="s">
         <v>1364</v>
       </c>
-      <c r="B3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>1365</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1367</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13853,16 +13857,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B4" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C4" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D4" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E4" t="s">
         <v>108</v>
@@ -13873,16 +13877,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D5" t="s">
         <v>1370</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1372</v>
       </c>
       <c r="E5" t="s">
         <v>108</v>
@@ -13893,16 +13897,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C6" t="s">
         <v>1373</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>1374</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1376</v>
       </c>
       <c r="E6" t="s">
         <v>264</v>
@@ -13913,16 +13917,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D7" t="s">
         <v>1377</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1379</v>
       </c>
       <c r="E7" t="s">
         <v>325</v>
@@ -13933,16 +13937,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D8" t="s">
         <v>1380</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1382</v>
       </c>
       <c r="E8" t="s">
         <v>264</v>
@@ -13953,16 +13957,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D9" t="s">
         <v>1383</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1385</v>
       </c>
       <c r="E9" t="s">
         <v>264</v>
@@ -13973,19 +13977,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D10" t="s">
         <v>1386</v>
       </c>
-      <c r="B10" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>1387</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1389</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -13993,16 +13997,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D11" t="s">
         <v>1390</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1392</v>
       </c>
       <c r="E11" t="s">
         <v>268</v>
@@ -14013,16 +14017,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D12" t="s">
         <v>1393</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1395</v>
       </c>
       <c r="E12" t="s">
         <v>268</v>
@@ -14033,16 +14037,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D13" t="s">
         <v>1396</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1398</v>
       </c>
       <c r="E13" t="s">
         <v>268</v>
@@ -14053,16 +14057,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D14" t="s">
         <v>1399</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1401</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -14073,16 +14077,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D15" t="s">
         <v>1402</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1404</v>
       </c>
       <c r="E15" t="s">
         <v>108</v>
@@ -14093,16 +14097,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D16" t="s">
         <v>1405</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1407</v>
       </c>
       <c r="E16" t="s">
         <v>272</v>
@@ -14113,16 +14117,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C17" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E17" t="s">
         <v>264</v>
@@ -14133,16 +14137,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D18" t="s">
         <v>1410</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1412</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
@@ -14153,19 +14157,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D19" t="s">
         <v>1413</v>
       </c>
-      <c r="B19" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>1414</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1416</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -14173,19 +14177,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D20" t="s">
         <v>1417</v>
       </c>
-      <c r="B20" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1419</v>
-      </c>
       <c r="E20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -14193,16 +14197,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D21" t="s">
         <v>1420</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1422</v>
       </c>
       <c r="E21" t="s">
         <v>108</v>
@@ -14213,16 +14217,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D22" t="s">
         <v>1423</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1425</v>
       </c>
       <c r="E22" t="s">
         <v>272</v>
@@ -14233,16 +14237,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D23" t="s">
         <v>1426</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1428</v>
       </c>
       <c r="E23" t="s">
         <v>362</v>
@@ -14253,16 +14257,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B24" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C24" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D24" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E24" t="s">
         <v>264</v>
@@ -14273,16 +14277,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D25" t="s">
         <v>1430</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1432</v>
       </c>
       <c r="E25" t="s">
         <v>264</v>
@@ -14293,16 +14297,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D26" t="s">
         <v>1433</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1435</v>
       </c>
       <c r="E26" t="s">
         <v>291</v>
@@ -14313,16 +14317,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C27" t="s">
         <v>1436</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>1437</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1439</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -14333,16 +14337,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D28" t="s">
         <v>1440</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1442</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -14353,16 +14357,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D29" t="s">
         <v>1443</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1445</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -14373,16 +14377,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D30" t="s">
         <v>1446</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1448</v>
       </c>
       <c r="E30" t="s">
         <v>27</v>
@@ -14393,16 +14397,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D31" t="s">
         <v>1449</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1451</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -14413,16 +14417,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D32" t="s">
         <v>1452</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1454</v>
       </c>
       <c r="E32" t="s">
         <v>362</v>
@@ -14433,16 +14437,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D33" t="s">
         <v>1455</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1457</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
@@ -14453,19 +14457,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D34" t="s">
         <v>1458</v>
       </c>
-      <c r="B34" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1460</v>
-      </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -14473,16 +14477,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D35" t="s">
         <v>1461</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1463</v>
       </c>
       <c r="E35" t="s">
         <v>264</v>
@@ -14493,16 +14497,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D36" t="s">
         <v>1464</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1466</v>
       </c>
       <c r="E36" t="s">
         <v>264</v>
@@ -14513,16 +14517,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D37" t="s">
         <v>1467</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1469</v>
       </c>
       <c r="E37" t="s">
         <v>436</v>
@@ -14533,19 +14537,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D38" t="s">
         <v>1470</v>
       </c>
-      <c r="B38" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>1471</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1473</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -14553,16 +14557,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D39" t="s">
         <v>1474</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1476</v>
       </c>
       <c r="E39" t="s">
         <v>120</v>
@@ -14573,16 +14577,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D40" t="s">
         <v>1477</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1479</v>
       </c>
       <c r="E40" t="s">
         <v>120</v>
@@ -14593,16 +14597,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D41" t="s">
         <v>1480</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1482</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
@@ -14613,16 +14617,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D42" t="s">
         <v>1483</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1485</v>
       </c>
       <c r="E42" t="s">
         <v>268</v>
@@ -14633,16 +14637,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C43" t="s">
         <v>1486</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>1487</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1489</v>
       </c>
       <c r="E43" t="s">
         <v>272</v>
@@ -14653,16 +14657,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D44" t="s">
         <v>1490</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1492</v>
       </c>
       <c r="E44" t="s">
         <v>120</v>
@@ -14673,16 +14677,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D45" t="s">
         <v>1493</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1495</v>
       </c>
       <c r="E45" t="s">
         <v>264</v>
@@ -14693,19 +14697,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D46" t="s">
         <v>1496</v>
       </c>
-      <c r="B46" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1498</v>
-      </c>
       <c r="E46" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -14713,16 +14717,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D47" t="s">
         <v>1499</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1501</v>
       </c>
       <c r="E47" t="s">
         <v>498</v>
@@ -14733,16 +14737,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D48" t="s">
         <v>1502</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1504</v>
       </c>
       <c r="E48" t="s">
         <v>498</v>
@@ -14753,19 +14757,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D49" t="s">
         <v>1505</v>
       </c>
-      <c r="B49" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1507</v>
-      </c>
       <c r="E49" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -14773,19 +14777,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B50" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C50" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D50" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E50" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F50" t="s">
         <v>28</v>
@@ -14793,16 +14797,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C51" t="s">
         <v>1510</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>1511</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1513</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
@@ -14813,19 +14817,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D52" t="s">
         <v>1514</v>
       </c>
-      <c r="B52" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1516</v>
-      </c>
       <c r="E52" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F52" t="s">
         <v>28</v>
@@ -14833,16 +14837,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D53" t="s">
         <v>1517</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1519</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
@@ -14853,16 +14857,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D54" t="s">
         <v>1520</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1522</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
@@ -14873,16 +14877,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D55" t="s">
         <v>1523</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1525</v>
       </c>
       <c r="E55" t="s">
         <v>120</v>
@@ -14893,16 +14897,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D56" t="s">
         <v>1526</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1528</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
@@ -14913,16 +14917,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D57" t="s">
         <v>1529</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1531</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
@@ -14933,16 +14937,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D58" t="s">
         <v>1532</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1534</v>
       </c>
       <c r="E58" t="s">
         <v>27</v>
@@ -14953,16 +14957,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D59" t="s">
         <v>1535</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1537</v>
       </c>
       <c r="E59" t="s">
         <v>498</v>
@@ -14973,16 +14977,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D60" t="s">
         <v>1538</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1540</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
@@ -14993,16 +14997,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D61" t="s">
         <v>1541</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1543</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
@@ -15013,16 +15017,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D62" t="s">
         <v>1544</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1546</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -15033,16 +15037,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D63" t="s">
         <v>1547</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1549</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -15053,16 +15057,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D64" t="s">
         <v>1550</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1552</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -15073,16 +15077,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D65" t="s">
         <v>1553</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1555</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -15093,16 +15097,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D66" t="s">
         <v>1556</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1558</v>
       </c>
       <c r="E66" t="s">
         <v>27</v>
@@ -15113,16 +15117,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D67" t="s">
         <v>1559</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1561</v>
       </c>
       <c r="E67" t="s">
         <v>39</v>
@@ -15133,16 +15137,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D68" t="s">
         <v>1562</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1564</v>
       </c>
       <c r="E68" t="s">
         <v>39</v>
@@ -15153,16 +15157,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D69" t="s">
         <v>1565</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1567</v>
       </c>
       <c r="E69" t="s">
         <v>39</v>
@@ -15173,16 +15177,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B70" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C70" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D70" t="s">
-        <v>1570</v>
+        <v>1606</v>
       </c>
       <c r="E70" t="s">
         <v>39</v>
@@ -15193,16 +15197,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B71" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C71" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D71" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E71" t="s">
         <v>39</v>
@@ -15213,16 +15217,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B72" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C72" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D72" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E72" t="s">
         <v>39</v>
@@ -15233,16 +15237,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B73" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C73" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D73" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E73" t="s">
         <v>39</v>
@@ -15253,16 +15257,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B74" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C74" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D74" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E74" t="s">
         <v>39</v>
@@ -15273,16 +15277,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B75" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C75" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D75" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E75" t="s">
         <v>39</v>
@@ -15293,16 +15297,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B76" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C76" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D76" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E76" t="s">
         <v>362</v>
@@ -15313,19 +15317,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E77" t="s">
         <v>1589</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1592</v>
       </c>
       <c r="F77" t="s">
         <v>28</v>
@@ -15333,16 +15337,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B78" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C78" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D78" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="E78" t="s">
         <v>272</v>
@@ -15353,16 +15357,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B79" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C79" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D79" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="E79" t="s">
         <v>272</v>
@@ -15373,16 +15377,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B80" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C80" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D80" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E80" t="s">
         <v>244</v>
@@ -15393,16 +15397,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B81" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C81" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D81" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E81" t="s">
         <v>244</v>

--- a/files/Ruleset-Literature.xlsx
+++ b/files/Ruleset-Literature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elements of Java Style" sheetId="1" r:id="rId1"/>
@@ -5326,17 +5326,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="C81" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="108" customWidth="1"/>
-    <col min="4" max="4" width="147.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8891,7 +8891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -13781,7 +13781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+    <sheetView topLeftCell="C55" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
